--- a/MetroParis (surement à compléter.xlsx
+++ b/MetroParis (surement à compléter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2eef7a2f02062645/Bureau/Programme/S4/Projet Pb Scientifique ^0 Info/Liv_In_Paris/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{FD033C5C-4D64-4D49-9B7C-AD43FFC9736E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4CA5481-46C1-41E0-B790-DD59E56A0D7F}"/>
+  <xr:revisionPtr revIDLastSave="446" documentId="8_{FD033C5C-4D64-4D49-9B7C-AD43FFC9736E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15DB5123-4457-4159-8296-00EF1AF64487}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="2010" windowWidth="14190" windowHeight="12780" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Noeuds" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="283">
   <si>
     <t>Libelle Line</t>
   </si>
@@ -884,13 +884,19 @@
   </si>
   <si>
     <t>Temps de Changement</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>Place des Fetes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -898,8 +904,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -918,6 +930,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -931,11 +949,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -951,6 +972,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1252,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6549EE12-F9D9-4064-922E-DFCA0A3CB738}">
   <dimension ref="A1:G333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,10 +1319,10 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>2.2825838473615399</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>48.878162652696503</v>
       </c>
       <c r="F2" t="s">
@@ -1317,10 +1342,10 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>2.2894354185422099</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>48.875667375651602</v>
       </c>
       <c r="F3" t="s">
@@ -1340,10 +1365,10 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>2.2958117752357601</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>48.874994575222999</v>
       </c>
       <c r="F4" t="s">
@@ -1363,10 +1388,10 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>2.3007597849789101</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>48.872037763641003</v>
       </c>
       <c r="F5" t="s">
@@ -1386,10 +1411,10 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>2.3094881923371098</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>48.868724887050398</v>
       </c>
       <c r="F6" t="s">
@@ -1409,10 +1434,10 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>2.3144645013227798</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>48.867656291245702</v>
       </c>
       <c r="F7" t="s">
@@ -1432,10 +1457,10 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>2.3229614457982501</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>48.866557992001603</v>
       </c>
       <c r="F8" t="s">
@@ -1455,10 +1480,10 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>2.3296780947116398</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>48.864477838366497</v>
       </c>
       <c r="F9" t="s">
@@ -1478,10 +1503,10 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>2.33645436775425</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>48.862222264625998</v>
       </c>
       <c r="F10" t="s">
@@ -1501,10 +1526,10 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>2.3409696232852601</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>48.860871211759402</v>
       </c>
       <c r="F11" t="s">
@@ -1524,10 +1549,10 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>2.34816099123457</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>48.856953459837101</v>
       </c>
       <c r="F12" t="s">
@@ -1547,10 +1572,10 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>2.3520676701390899</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>48.857352404237702</v>
       </c>
       <c r="F13" t="s">
@@ -1570,10 +1595,10 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>2.3608852562751901</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>48.8551874206562</v>
       </c>
       <c r="F14" t="s">
@@ -1593,10 +1618,10 @@
       <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>2.3687189610340802</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>48.852054292549496</v>
       </c>
       <c r="F15" t="s">
@@ -1616,10 +1641,10 @@
       <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>2.3731565937891999</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>48.845683205787502</v>
       </c>
       <c r="F16" t="s">
@@ -1639,10 +1664,10 @@
       <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>2.38720107040939</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>48.847212925749702</v>
       </c>
       <c r="F17" t="s">
@@ -1662,10 +1687,10 @@
       <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>2.3958439887237302</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>48.848084289025699</v>
       </c>
       <c r="F18" t="s">
@@ -1685,10 +1710,10 @@
       <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>2.41080499670149</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>48.847007730140398</v>
       </c>
       <c r="F19" t="s">
@@ -1708,10 +1733,10 @@
       <c r="C20" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>2.4405400954061101</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>48.844317513365297</v>
       </c>
       <c r="F20" t="s">
@@ -1731,10 +1756,10 @@
       <c r="C21" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>2.27763271754527</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21">
         <v>48.871396794300203</v>
       </c>
       <c r="F21" t="s">
@@ -1754,10 +1779,10 @@
       <c r="C22" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>2.2858287659129699</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22">
         <v>48.869926081462502</v>
       </c>
       <c r="F22" t="s">
@@ -1777,10 +1802,10 @@
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>2.2958117752357601</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
         <v>48.874994575222999</v>
       </c>
       <c r="F23" t="s">
@@ -1800,10 +1825,10 @@
       <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>2.2981132886172402</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24">
         <v>48.8782277299143</v>
       </c>
       <c r="F24" t="s">
@@ -1823,10 +1848,10 @@
       <c r="C25" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>2.30329436242521</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25">
         <v>48.879265253165102</v>
       </c>
       <c r="F25" t="s">
@@ -1846,10 +1871,10 @@
       <c r="C26" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>2.3094129673746999</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26">
         <v>48.880568769178801</v>
       </c>
       <c r="F26" t="s">
@@ -1869,10 +1894,10 @@
       <c r="C27" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>2.3158150926463699</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27">
         <v>48.881073182127601</v>
       </c>
       <c r="F27" t="s">
@@ -1892,10 +1917,10 @@
       <c r="C28" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>2.32135917382297</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28">
         <v>48.882345817848098</v>
       </c>
       <c r="F28" t="s">
@@ -1915,10 +1940,10 @@
       <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>2.3279583280102099</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29">
         <v>48.883669087324598</v>
       </c>
       <c r="F29" t="s">
@@ -1938,10 +1963,10 @@
       <c r="C30" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>2.33248437543436</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30">
         <v>48.883766353529097</v>
       </c>
       <c r="F30" t="s">
@@ -1961,10 +1986,10 @@
       <c r="C31" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>2.3372111647011198</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31">
         <v>48.8820209311193</v>
       </c>
       <c r="F31" t="s">
@@ -1984,10 +2009,10 @@
       <c r="C32" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>2.3441548403302899</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32">
         <v>48.882868567895898</v>
       </c>
       <c r="F32" t="s">
@@ -2007,10 +2032,10 @@
       <c r="C33" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>2.3506070793550902</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33">
         <v>48.883776088608897</v>
       </c>
       <c r="F33" t="s">
@@ -2030,10 +2055,10 @@
       <c r="C34" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>2.3604041692740898</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34">
         <v>48.884386409904799</v>
       </c>
       <c r="F34" t="s">
@@ -2053,10 +2078,10 @@
       <c r="C35" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35">
         <v>2.3657743705581602</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35">
         <v>48.884320547921803</v>
       </c>
       <c r="F35" t="s">
@@ -2076,10 +2101,10 @@
       <c r="C36" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>2.3714389599855998</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36">
         <v>48.883023912481299</v>
       </c>
       <c r="F36" t="s">
@@ -2099,10 +2124,10 @@
       <c r="C37" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37">
         <v>2.3704675747938602</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37">
         <v>48.877649807573398</v>
       </c>
       <c r="F37" t="s">
@@ -2122,10 +2147,10 @@
       <c r="C38" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38">
         <v>2.3767355865572801</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38">
         <v>48.872286601164703</v>
       </c>
       <c r="F38" t="s">
@@ -2145,10 +2170,10 @@
       <c r="C39" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39">
         <v>2.38028898292719</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39">
         <v>48.869193344184197</v>
       </c>
       <c r="F39" t="s">
@@ -2168,10 +2193,10 @@
       <c r="C40" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40">
         <v>2.3834303882303001</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40">
         <v>48.8663901391973</v>
       </c>
       <c r="F40" t="s">
@@ -2191,10 +2216,10 @@
       <c r="C41" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41">
         <v>2.3875798912544401</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41">
         <v>48.862449843989303</v>
       </c>
       <c r="F41" t="s">
@@ -2214,10 +2239,10 @@
       <c r="C42" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>2.3904975967452802</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42">
         <v>48.858089427187501</v>
       </c>
       <c r="F42" t="s">
@@ -2237,10 +2262,10 @@
       <c r="C43" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43">
         <v>2.3947127337554699</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43">
         <v>48.856244677489201</v>
       </c>
       <c r="F43" t="s">
@@ -2260,10 +2285,10 @@
       <c r="C44" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44">
         <v>2.3981875566593902</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44">
         <v>48.851648542648903</v>
       </c>
       <c r="F44" t="s">
@@ -2283,10 +2308,10 @@
       <c r="C45" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45">
         <v>2.3958439887237302</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45">
         <v>48.848084289025699</v>
       </c>
       <c r="F45" t="s">
@@ -2306,10 +2331,10 @@
       <c r="C46" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46">
         <v>2.2921124821588399</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46">
         <v>48.885652392185797</v>
       </c>
       <c r="F46" t="s">
@@ -2329,10 +2354,10 @@
       <c r="C47" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47">
         <v>2.2976831860125801</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47">
         <v>48.884844321791803</v>
       </c>
       <c r="F47" t="s">
@@ -2352,10 +2377,10 @@
       <c r="C48" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48">
         <v>2.3046730875844301</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48">
         <v>48.883846389779201</v>
       </c>
       <c r="F48" t="s">
@@ -2375,10 +2400,10 @@
       <c r="C49" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49">
         <v>2.30948784696001</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49">
         <v>48.882840021629796</v>
       </c>
       <c r="F49" t="s">
@@ -2398,10 +2423,10 @@
       <c r="C50" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50">
         <v>2.3158150926463699</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50">
         <v>48.881073182127601</v>
       </c>
       <c r="F50" t="s">
@@ -2421,10 +2446,10 @@
       <c r="C51" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51">
         <v>2.3221859195204999</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51">
         <v>48.878753163096697</v>
       </c>
       <c r="F51" t="s">
@@ -2444,10 +2469,10 @@
       <c r="C52" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52">
         <v>2.3254883906726098</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52">
         <v>48.875381315059897</v>
       </c>
       <c r="F52" t="s">
@@ -2467,10 +2492,10 @@
       <c r="C53" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53">
         <v>2.3276511034187801</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53">
         <v>48.873666750997003</v>
       </c>
       <c r="F53" t="s">
@@ -2490,10 +2515,10 @@
       <c r="C54" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54">
         <v>2.3310472867112302</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54">
         <v>48.871437428049099</v>
       </c>
       <c r="F54" t="s">
@@ -2513,10 +2538,10 @@
       <c r="C55" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55">
         <v>2.33631873559548</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55">
         <v>48.869659096436102</v>
       </c>
       <c r="F55" t="s">
@@ -2536,10 +2561,10 @@
       <c r="C56" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56">
         <v>2.3406653707110401</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56">
         <v>48.868756796707601</v>
       </c>
       <c r="F56" t="s">
@@ -2559,10 +2584,10 @@
       <c r="C57" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57">
         <v>2.34755381593778</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57">
         <v>48.867346603345602</v>
       </c>
       <c r="F57" t="s">
@@ -2582,10 +2607,10 @@
       <c r="C58" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58">
         <v>2.3520507871028302</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58">
         <v>48.866381755803403</v>
       </c>
       <c r="F58" t="s">
@@ -2605,10 +2630,10 @@
       <c r="C59" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59">
         <v>2.35650814364354</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59">
         <v>48.865299611696798</v>
       </c>
       <c r="F59" t="s">
@@ -2628,10 +2653,10 @@
       <c r="C60" t="s">
         <v>75</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60">
         <v>2.3615612345263499</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60">
         <v>48.8667566284863</v>
       </c>
       <c r="F60" t="s">
@@ -2651,10 +2676,10 @@
       <c r="C61" t="s">
         <v>76</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61">
         <v>2.3633023407804501</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61">
         <v>48.867512356863003</v>
       </c>
       <c r="F61" t="s">
@@ -2674,10 +2699,10 @@
       <c r="C62" t="s">
         <v>77</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62">
         <v>2.3747477503599002</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62">
         <v>48.865252394862502</v>
       </c>
       <c r="F62" t="s">
@@ -2697,10 +2722,10 @@
       <c r="C63" t="s">
         <v>78</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63">
         <v>2.3805077560898602</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63">
         <v>48.864117700014603</v>
       </c>
       <c r="F63" t="s">
@@ -2720,10 +2745,10 @@
       <c r="C64" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64">
         <v>2.3875798912544401</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64">
         <v>48.862449843989303</v>
       </c>
       <c r="F64" t="s">
@@ -2743,10 +2768,10 @@
       <c r="C65" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65">
         <v>2.3985373057045698</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65">
         <v>48.865032563515904</v>
       </c>
       <c r="F65" t="s">
@@ -2766,10 +2791,10 @@
       <c r="C66" t="s">
         <v>80</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66">
         <v>2.4087542211895401</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66">
         <v>48.864539371986297</v>
       </c>
       <c r="F66" t="s">
@@ -2789,10 +2814,10 @@
       <c r="C67" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67">
         <v>2.4070619733807899</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67">
         <v>48.876568598079899</v>
       </c>
       <c r="F67" t="s">
@@ -2812,10 +2837,10 @@
       <c r="C68" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68">
         <v>2.4044981831688599</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68">
         <v>48.871843371274899</v>
       </c>
       <c r="F68" t="s">
@@ -2835,10 +2860,10 @@
       <c r="C69" t="s">
         <v>84</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69">
         <v>2.40149679228792</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69">
         <v>48.868464886066697</v>
       </c>
       <c r="F69" t="s">
@@ -2858,10 +2883,10 @@
       <c r="C70" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70">
         <v>2.3985373057045698</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70">
         <v>48.865032563515904</v>
       </c>
       <c r="F70" t="s">
@@ -2881,10 +2906,10 @@
       <c r="C71" t="s">
         <v>85</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71">
         <v>2.34462409910279</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71">
         <v>48.897525630330101</v>
       </c>
       <c r="F71" t="s">
@@ -2904,10 +2929,10 @@
       <c r="C72" t="s">
         <v>86</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72">
         <v>2.34759605535164</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72">
         <v>48.894124442685403</v>
       </c>
       <c r="F72" t="s">
@@ -2927,10 +2952,10 @@
       <c r="C73" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73">
         <v>2.3496815417224699</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73">
         <v>48.891280438896501</v>
       </c>
       <c r="F73" t="s">
@@ -2950,10 +2975,10 @@
       <c r="C74" t="s">
         <v>88</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74">
         <v>2.3493658080048299</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74">
         <v>48.887078876519503</v>
       </c>
       <c r="F74" t="s">
@@ -2973,10 +2998,10 @@
       <c r="C75" t="s">
         <v>44</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75">
         <v>2.3506070793550902</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75">
         <v>48.883776088608897</v>
       </c>
       <c r="F75" t="s">
@@ -2996,10 +3021,10 @@
       <c r="C76" t="s">
         <v>89</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76">
         <v>2.3568087882054001</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76">
         <v>48.879591706462101</v>
       </c>
       <c r="F76" t="s">
@@ -3019,10 +3044,10 @@
       <c r="C77" t="s">
         <v>90</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77">
         <v>2.3580645944186398</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77">
         <v>48.876162993518399</v>
       </c>
       <c r="F77" t="s">
@@ -3042,10 +3067,10 @@
       <c r="C78" t="s">
         <v>91</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78">
         <v>2.35605174140158</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78">
         <v>48.872446916647398</v>
       </c>
       <c r="F78" t="s">
@@ -3065,10 +3090,10 @@
       <c r="C79" t="s">
         <v>92</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79">
         <v>2.3544916165638301</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79">
         <v>48.869623581689503</v>
       </c>
       <c r="F79" t="s">
@@ -3088,10 +3113,10 @@
       <c r="C80" t="s">
         <v>72</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80">
         <v>2.3520507871028302</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80">
         <v>48.866381755803403</v>
       </c>
       <c r="F80" t="s">
@@ -3111,10 +3136,10 @@
       <c r="C81" t="s">
         <v>93</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81">
         <v>2.3489761968791001</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81">
         <v>48.863703011076197</v>
       </c>
       <c r="F81" t="s">
@@ -3134,10 +3159,10 @@
       <c r="C82" t="s">
         <v>94</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82">
         <v>2.3461273251736801</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82">
         <v>48.8625048393912</v>
       </c>
       <c r="F82" t="s">
@@ -3157,10 +3182,10 @@
       <c r="C83" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83">
         <v>2.34816099123457</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83">
         <v>48.856953459837101</v>
       </c>
       <c r="F83" t="s">
@@ -3180,10 +3205,10 @@
       <c r="C84" t="s">
         <v>95</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84">
         <v>2.3472322349319099</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84">
         <v>48.854933848158502</v>
       </c>
       <c r="F84" t="s">
@@ -3203,10 +3228,10 @@
       <c r="C85" t="s">
         <v>96</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85">
         <v>2.3439917990332799</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85">
         <v>48.853594076619899</v>
       </c>
       <c r="F85" t="s">
@@ -3226,10 +3251,10 @@
       <c r="C86" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86">
         <v>2.34069229106652</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86">
         <v>48.8520245535667</v>
       </c>
       <c r="F86" t="s">
@@ -3249,10 +3274,10 @@
       <c r="C87" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87">
         <v>2.3339478107981901</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87">
         <v>48.853574562874201</v>
       </c>
       <c r="F87" t="s">
@@ -3272,10 +3297,10 @@
       <c r="C88" t="s">
         <v>100</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88">
         <v>2.3306119530815401</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88">
         <v>48.851208626618501</v>
       </c>
       <c r="F88" t="s">
@@ -3295,10 +3320,10 @@
       <c r="C89" t="s">
         <v>101</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89">
         <v>2.32705481506631</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89">
         <v>48.847006650641099</v>
       </c>
       <c r="F89" t="s">
@@ -3318,10 +3343,10 @@
       <c r="C90" t="s">
         <v>102</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90">
         <v>2.3239891852049999</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90">
         <v>48.843823610306202</v>
       </c>
       <c r="F90" t="s">
@@ -3341,10 +3366,10 @@
       <c r="C91" t="s">
         <v>104</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91">
         <v>2.3288628540690999</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91">
         <v>48.842052322344003</v>
       </c>
       <c r="F91" t="s">
@@ -3364,10 +3389,10 @@
       <c r="C92" t="s">
         <v>106</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92">
         <v>2.3304669937198699</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92">
         <v>48.839156358577199</v>
       </c>
       <c r="F92" t="s">
@@ -3387,10 +3412,10 @@
       <c r="C93" t="s">
         <v>107</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93">
         <v>2.3320188352163802</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93">
         <v>48.833948692743903</v>
       </c>
       <c r="F93" t="s">
@@ -3410,10 +3435,10 @@
       <c r="C94" t="s">
         <v>108</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94">
         <v>2.3298876404084199</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94">
         <v>48.8313375846231</v>
       </c>
       <c r="F94" t="s">
@@ -3433,10 +3458,10 @@
       <c r="C95" t="s">
         <v>109</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95">
         <v>2.3270932349484501</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95">
         <v>48.828201063270797</v>
       </c>
       <c r="F95" t="s">
@@ -3456,10 +3481,10 @@
       <c r="C96" t="s">
         <v>110</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96">
         <v>2.3254932653821001</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96">
         <v>48.823416350191799</v>
       </c>
       <c r="F96" t="s">
@@ -3479,10 +3504,10 @@
       <c r="C97" t="s">
         <v>111</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97">
         <v>2.3921229723281399</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97">
         <v>48.8884592103988</v>
       </c>
       <c r="F97" t="s">
@@ -3502,10 +3527,10 @@
       <c r="C98" t="s">
         <v>112</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98">
         <v>2.3866520167598799</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98">
         <v>48.886915952247001</v>
       </c>
       <c r="F98" t="s">
@@ -3525,10 +3550,10 @@
       <c r="C99" t="s">
         <v>113</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99">
         <v>2.3793909893523901</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99">
         <v>48.885133847137801</v>
       </c>
       <c r="F99" t="s">
@@ -3548,10 +3573,10 @@
       <c r="C100" t="s">
         <v>49</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100">
         <v>2.3714389599855998</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100">
         <v>48.883023912481299</v>
       </c>
       <c r="F100" t="s">
@@ -3571,10 +3596,10 @@
       <c r="C101" t="s">
         <v>47</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101">
         <v>2.3657743705581602</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101">
         <v>48.884320547921803</v>
       </c>
       <c r="F101" t="s">
@@ -3594,10 +3619,10 @@
       <c r="C102" t="s">
         <v>89</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102">
         <v>2.3568087882054001</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102">
         <v>48.879591706462101</v>
       </c>
       <c r="F102" t="s">
@@ -3617,10 +3642,10 @@
       <c r="C103" t="s">
         <v>90</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103">
         <v>2.3580645944186398</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103">
         <v>48.876162993518399</v>
       </c>
       <c r="F103" t="s">
@@ -3640,10 +3665,10 @@
       <c r="C104" t="s">
         <v>114</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104">
         <v>2.3610239020489199</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104">
         <v>48.870620925317198</v>
       </c>
       <c r="F104" t="s">
@@ -3663,10 +3688,10 @@
       <c r="C105" t="s">
         <v>76</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105">
         <v>2.3633023407804501</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105">
         <v>48.867512356863003</v>
       </c>
       <c r="F105" t="s">
@@ -3686,10 +3711,10 @@
       <c r="C106" t="s">
         <v>115</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106">
         <v>2.3681558453945502</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106">
         <v>48.864777097573203</v>
       </c>
       <c r="F106" t="s">
@@ -3709,10 +3734,10 @@
       <c r="C107" t="s">
         <v>116</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107">
         <v>2.3718136304769502</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107">
         <v>48.8598769369205</v>
       </c>
       <c r="F107" t="s">
@@ -3732,10 +3757,10 @@
       <c r="C108" t="s">
         <v>117</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108">
         <v>2.3701946685897499</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108">
         <v>48.856244053738102</v>
       </c>
       <c r="F108" t="s">
@@ -3755,10 +3780,10 @@
       <c r="C109" t="s">
         <v>23</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109">
         <v>2.3687189610340802</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109">
         <v>48.852054292549496</v>
       </c>
       <c r="F109" t="s">
@@ -3778,10 +3803,10 @@
       <c r="C110" t="s">
         <v>118</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110">
         <v>2.3658846507504001</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110">
         <v>48.846427324531497</v>
       </c>
       <c r="F110" t="s">
@@ -3801,10 +3826,10 @@
       <c r="C111" t="s">
         <v>119</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111">
         <v>2.3641773106918298</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111">
         <v>48.843405408577098</v>
       </c>
       <c r="F111" t="s">
@@ -3824,10 +3849,10 @@
       <c r="C112" t="s">
         <v>121</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112">
         <v>2.36072185971764</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112">
         <v>48.838512445735603</v>
       </c>
       <c r="F112" t="s">
@@ -3847,10 +3872,10 @@
       <c r="C113" t="s">
         <v>123</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113">
         <v>2.3587419566993399</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113">
         <v>48.835542932800998</v>
       </c>
       <c r="F113" t="s">
@@ -3870,10 +3895,10 @@
       <c r="C114" t="s">
         <v>124</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114">
         <v>2.3555015914814801</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114">
         <v>48.830965712344302</v>
       </c>
       <c r="F114" t="s">
@@ -3893,10 +3918,10 @@
       <c r="C115" t="s">
         <v>9</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115">
         <v>2.2958117752357601</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115">
         <v>48.874994575222999</v>
       </c>
       <c r="F115" t="s">
@@ -3916,10 +3941,10 @@
       <c r="C116" t="s">
         <v>125</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116">
         <v>2.2931461372486202</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116">
         <v>48.8714894119869</v>
       </c>
       <c r="F116" t="s">
@@ -3939,10 +3964,10 @@
       <c r="C117" t="s">
         <v>126</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117">
         <v>2.2900328376074301</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117">
         <v>48.866848342469197</v>
       </c>
       <c r="F117" t="s">
@@ -3962,10 +3987,10 @@
       <c r="C118" t="s">
         <v>127</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118">
         <v>2.2874927969664398</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118">
         <v>48.8634876640714</v>
       </c>
       <c r="F118" t="s">
@@ -3985,10 +4010,10 @@
       <c r="C119" t="s">
         <v>128</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119">
         <v>2.2858394188814599</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119">
         <v>48.857515088672102</v>
       </c>
       <c r="F119" t="s">
@@ -4008,10 +4033,10 @@
       <c r="C120" t="s">
         <v>129</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120">
         <v>2.28940073763459</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120">
         <v>48.853925367427699</v>
       </c>
       <c r="F120" t="s">
@@ -4031,10 +4056,10 @@
       <c r="C121" t="s">
         <v>130</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121">
         <v>2.29366372673103</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121">
         <v>48.850411624858403</v>
       </c>
       <c r="F121" t="s">
@@ -4054,10 +4079,10 @@
       <c r="C122" t="s">
         <v>131</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122">
         <v>2.2985257262366301</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122">
         <v>48.849630803484203</v>
       </c>
       <c r="F122" t="s">
@@ -4077,10 +4102,10 @@
       <c r="C123" t="s">
         <v>132</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123">
         <v>2.3029417283376099</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123">
         <v>48.847543111245201</v>
       </c>
       <c r="F123" t="s">
@@ -4100,10 +4125,10 @@
       <c r="C124" t="s">
         <v>133</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124">
         <v>2.3095296104303902</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124">
         <v>48.845647681702403</v>
       </c>
       <c r="F124" t="s">
@@ -4123,10 +4148,10 @@
       <c r="C125" t="s">
         <v>134</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125">
         <v>2.3129146804739298</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125">
         <v>48.8425283865949</v>
       </c>
       <c r="F125" t="s">
@@ -4146,10 +4171,10 @@
       <c r="C126" t="s">
         <v>102</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126">
         <v>2.3239891852049999</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126">
         <v>48.843823610306202</v>
       </c>
       <c r="F126" t="s">
@@ -4169,10 +4194,10 @@
       <c r="C127" t="s">
         <v>135</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127">
         <v>2.3252865779432899</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127">
         <v>48.840903500749903</v>
       </c>
       <c r="F127" t="s">
@@ -4192,10 +4217,10 @@
       <c r="C128" t="s">
         <v>106</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128">
         <v>2.3304669937198699</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128">
         <v>48.839156358577199</v>
       </c>
       <c r="F128" t="s">
@@ -4215,10 +4240,10 @@
       <c r="C129" t="s">
         <v>107</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129">
         <v>2.3320188352163802</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129">
         <v>48.833948692743903</v>
       </c>
       <c r="F129" t="s">
@@ -4238,10 +4263,10 @@
       <c r="C130" t="s">
         <v>136</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130">
         <v>2.337154370925</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130">
         <v>48.832916005270803</v>
       </c>
       <c r="F130" t="s">
@@ -4261,10 +4286,10 @@
       <c r="C131" t="s">
         <v>137</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131">
         <v>2.3434382366787001</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131">
         <v>48.831115946668099</v>
       </c>
       <c r="F131" t="s">
@@ -4284,10 +4309,10 @@
       <c r="C132" t="s">
         <v>138</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132">
         <v>2.3506112259261598</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132">
         <v>48.829860012364001</v>
       </c>
       <c r="F132" t="s">
@@ -4307,10 +4332,10 @@
       <c r="C133" t="s">
         <v>124</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133">
         <v>2.3555015914814801</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133">
         <v>48.830965712344302</v>
       </c>
       <c r="F133" t="s">
@@ -4330,10 +4355,10 @@
       <c r="C134" t="s">
         <v>139</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134">
         <v>2.3628041715935</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134">
         <v>48.833235278727798</v>
       </c>
       <c r="F134" t="s">
@@ -4353,10 +4378,10 @@
       <c r="C135" t="s">
         <v>140</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135">
         <v>2.36808128297274</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135">
         <v>48.834963081160801</v>
       </c>
       <c r="F135" t="s">
@@ -4376,10 +4401,10 @@
       <c r="C136" t="s">
         <v>141</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136">
         <v>2.37276624894817</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136">
         <v>48.837074269661301</v>
       </c>
       <c r="F136" t="s">
@@ -4399,10 +4424,10 @@
       <c r="C137" t="s">
         <v>142</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137">
         <v>2.3794630701852499</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137">
         <v>48.840176027173598</v>
       </c>
       <c r="F137" t="s">
@@ -4422,10 +4447,10 @@
       <c r="C138" t="s">
         <v>143</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138">
         <v>2.3895997700798</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138">
         <v>48.8390365273805</v>
       </c>
       <c r="F138" t="s">
@@ -4445,10 +4470,10 @@
       <c r="C139" t="s">
         <v>144</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139">
         <v>2.3961486284893598</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139">
         <v>48.839434007104799</v>
       </c>
       <c r="F139" t="s">
@@ -4468,10 +4493,10 @@
       <c r="C140" t="s">
         <v>145</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140">
         <v>2.4008671319952501</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140">
         <v>48.841427331285303</v>
       </c>
       <c r="F140" t="s">
@@ -4491,10 +4516,10 @@
       <c r="C141" t="s">
         <v>146</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141">
         <v>2.4012745388223702</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141">
         <v>48.845103246553599</v>
       </c>
       <c r="F141" t="s">
@@ -4514,10 +4539,10 @@
       <c r="C142" t="s">
         <v>27</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142">
         <v>2.3958439887237302</v>
       </c>
-      <c r="E142" s="3">
+      <c r="E142">
         <v>48.848084289025699</v>
       </c>
       <c r="F142" t="s">
@@ -4537,10 +4562,10 @@
       <c r="C143" t="s">
         <v>147</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143">
         <v>2.3858690331433401</v>
       </c>
-      <c r="E143" s="3">
+      <c r="E143">
         <v>48.897802691407797</v>
       </c>
       <c r="F143" t="s">
@@ -4560,10 +4585,10 @@
       <c r="C144" t="s">
         <v>148</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144">
         <v>2.3822915571646299</v>
       </c>
-      <c r="E144" s="3">
+      <c r="E144">
         <v>48.894672659108302</v>
       </c>
       <c r="F144" t="s">
@@ -4583,10 +4608,10 @@
       <c r="C145" t="s">
         <v>149</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145">
         <v>2.3769357369823698</v>
       </c>
-      <c r="E145" s="3">
+      <c r="E145">
         <v>48.890885757980797</v>
       </c>
       <c r="F145" t="s">
@@ -4606,10 +4631,10 @@
       <c r="C146" t="s">
         <v>150</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146">
         <v>2.3736694647431902</v>
       </c>
-      <c r="E146" s="3">
+      <c r="E146">
         <v>48.888157261117797</v>
       </c>
       <c r="F146" t="s">
@@ -4629,10 +4654,10 @@
       <c r="C147" t="s">
         <v>47</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147">
         <v>2.3657743705581602</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E147">
         <v>48.884320547921803</v>
       </c>
       <c r="F147" t="s">
@@ -4652,10 +4677,10 @@
       <c r="C148" t="s">
         <v>151</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148">
         <v>2.3644248624936699</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148">
         <v>48.881206210877899</v>
       </c>
       <c r="F148" t="s">
@@ -4675,10 +4700,10 @@
       <c r="C149" t="s">
         <v>152</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149">
         <v>2.3620179355105999</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E149">
         <v>48.878441454784301</v>
       </c>
       <c r="F149" t="s">
@@ -4698,10 +4723,10 @@
       <c r="C150" t="s">
         <v>90</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150">
         <v>2.3580645944186398</v>
       </c>
-      <c r="E150" s="3">
+      <c r="E150">
         <v>48.876162993518399</v>
       </c>
       <c r="F150" t="s">
@@ -4721,10 +4746,10 @@
       <c r="C151" t="s">
         <v>153</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151">
         <v>2.3487397513900699</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151">
         <v>48.877164848302201</v>
       </c>
       <c r="F151" t="s">
@@ -4744,10 +4769,10 @@
       <c r="C152" t="s">
         <v>154</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152">
         <v>2.3444463097022701</v>
       </c>
-      <c r="E152" s="3">
+      <c r="E152">
         <v>48.875963284127501</v>
       </c>
       <c r="F152" t="s">
@@ -4767,10 +4792,10 @@
       <c r="C153" t="s">
         <v>155</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153">
         <v>2.3401505597063701</v>
       </c>
-      <c r="E153" s="3">
+      <c r="E153">
         <v>48.874959405092902</v>
       </c>
       <c r="F153" t="s">
@@ -4790,10 +4815,10 @@
       <c r="C154" t="s">
         <v>156</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154">
         <v>2.3337385944086999</v>
       </c>
-      <c r="E154" s="3">
+      <c r="E154">
         <v>48.873134204826599</v>
       </c>
       <c r="F154" t="s">
@@ -4813,10 +4838,10 @@
       <c r="C155" t="s">
         <v>67</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155">
         <v>2.3310472867112302</v>
       </c>
-      <c r="E155" s="3">
+      <c r="E155">
         <v>48.871437428049099</v>
       </c>
       <c r="F155" t="s">
@@ -4836,10 +4861,10 @@
       <c r="C156" t="s">
         <v>157</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156">
         <v>2.3346236060049201</v>
       </c>
-      <c r="E156" s="3">
+      <c r="E156">
         <v>48.8657555264286</v>
       </c>
       <c r="F156" t="s">
@@ -4859,10 +4884,10 @@
       <c r="C157" t="s">
         <v>17</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157">
         <v>2.33645436775425</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E157">
         <v>48.862222264625998</v>
       </c>
       <c r="F157" t="s">
@@ -4882,10 +4907,10 @@
       <c r="C158" t="s">
         <v>158</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158">
         <v>2.3417767491485399</v>
       </c>
-      <c r="E158" s="3">
+      <c r="E158">
         <v>48.858546338320103</v>
       </c>
       <c r="F158" t="s">
@@ -4905,10 +4930,10 @@
       <c r="C159" t="s">
         <v>19</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D159">
         <v>2.34816099123457</v>
       </c>
-      <c r="E159" s="3">
+      <c r="E159">
         <v>48.856953459837101</v>
       </c>
       <c r="F159" t="s">
@@ -4928,10 +4953,10 @@
       <c r="C160" t="s">
         <v>159</v>
       </c>
-      <c r="D160" s="3">
+      <c r="D160">
         <v>2.3573766690443998</v>
       </c>
-      <c r="E160" s="3">
+      <c r="E160">
         <v>48.853459859479599</v>
       </c>
       <c r="F160" t="s">
@@ -4951,10 +4976,10 @@
       <c r="C161" t="s">
         <v>160</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D161">
         <v>2.3618531696972398</v>
       </c>
-      <c r="E161" s="3">
+      <c r="E161">
         <v>48.851271407445502</v>
       </c>
       <c r="F161" t="s">
@@ -4974,10 +4999,10 @@
       <c r="C162" t="s">
         <v>161</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162">
         <v>2.3549316718232198</v>
       </c>
-      <c r="E162" s="3">
+      <c r="E162">
         <v>48.8461978906887</v>
       </c>
       <c r="F162" t="s">
@@ -4997,10 +5022,10 @@
       <c r="C163" t="s">
         <v>162</v>
       </c>
-      <c r="D163" s="3">
+      <c r="D163">
         <v>2.3521548685787699</v>
       </c>
-      <c r="E163" s="3">
+      <c r="E163">
         <v>48.842666384694603</v>
       </c>
       <c r="F163" t="s">
@@ -5020,10 +5045,10 @@
       <c r="C164" t="s">
         <v>163</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D164">
         <v>2.3516265726054901</v>
       </c>
-      <c r="E164" s="3">
+      <c r="E164">
         <v>48.840226247565603</v>
       </c>
       <c r="F164" t="s">
@@ -5043,10 +5068,10 @@
       <c r="C165" t="s">
         <v>164</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165">
         <v>2.3524168018982698</v>
       </c>
-      <c r="E165" s="3">
+      <c r="E165">
         <v>48.835841621396099</v>
       </c>
       <c r="F165" t="s">
@@ -5066,10 +5091,10 @@
       <c r="C166" t="s">
         <v>124</v>
       </c>
-      <c r="D166" s="3">
+      <c r="D166">
         <v>2.3555015914814801</v>
       </c>
-      <c r="E166" s="3">
+      <c r="E166">
         <v>48.830965712344302</v>
       </c>
       <c r="F166" t="s">
@@ -5089,10 +5114,10 @@
       <c r="C167" t="s">
         <v>165</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D167">
         <v>2.3573184392131901</v>
       </c>
-      <c r="E167" s="3">
+      <c r="E167">
         <v>48.826136860805299</v>
       </c>
       <c r="F167" t="s">
@@ -5112,10 +5137,10 @@
       <c r="C168" t="s">
         <v>166</v>
       </c>
-      <c r="D168" s="3">
+      <c r="D168">
         <v>2.35841294615593</v>
       </c>
-      <c r="E168" s="3">
+      <c r="E168">
         <v>48.822149505126497</v>
       </c>
       <c r="F168" t="s">
@@ -5135,10 +5160,10 @@
       <c r="C169" t="s">
         <v>167</v>
       </c>
-      <c r="D169" s="3">
+      <c r="D169">
         <v>2.3595297331071601</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E169">
         <v>48.819106595610201</v>
       </c>
       <c r="F169" t="s">
@@ -5158,10 +5183,10 @@
       <c r="C170" t="s">
         <v>168</v>
       </c>
-      <c r="D170" s="3">
+      <c r="D170">
         <v>2.3646785940494501</v>
       </c>
-      <c r="E170" s="3">
+      <c r="E170">
         <v>48.8200559281997</v>
       </c>
       <c r="F170" t="s">
@@ -5181,10 +5206,10 @@
       <c r="C171" t="s">
         <v>169</v>
       </c>
-      <c r="D171" s="3">
+      <c r="D171">
         <v>2.3695112543194901</v>
       </c>
-      <c r="E171" s="3">
+      <c r="E171">
         <v>48.821489034614402</v>
       </c>
       <c r="F171" t="s">
@@ -5204,10 +5229,10 @@
       <c r="C172" t="s">
         <v>166</v>
       </c>
-      <c r="D172" s="3">
+      <c r="D172">
         <v>2.35841294615593</v>
       </c>
-      <c r="E172" s="3">
+      <c r="E172">
         <v>48.822149505126497</v>
       </c>
       <c r="F172" t="s">
@@ -5227,10 +5252,10 @@
       <c r="C173" t="s">
         <v>151</v>
       </c>
-      <c r="D173" s="3">
+      <c r="D173">
         <v>2.3644248624936699</v>
       </c>
-      <c r="E173" s="3">
+      <c r="E173">
         <v>48.881206210877899</v>
       </c>
       <c r="F173" t="s">
@@ -5250,10 +5275,10 @@
       <c r="C174" t="s">
         <v>49</v>
       </c>
-      <c r="D174" s="3">
+      <c r="D174">
         <v>2.3714389599855998</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E174">
         <v>48.883023912481299</v>
       </c>
       <c r="F174" t="s">
@@ -5273,10 +5298,10 @@
       <c r="C175" t="s">
         <v>171</v>
       </c>
-      <c r="D175" s="3">
+      <c r="D175">
         <v>2.37412487118754</v>
       </c>
-      <c r="E175" s="3">
+      <c r="E175">
         <v>48.880789662026999</v>
       </c>
       <c r="F175" t="s">
@@ -5296,10 +5321,10 @@
       <c r="C176" t="s">
         <v>172</v>
       </c>
-      <c r="D176" s="3">
+      <c r="D176">
         <v>2.381569842088</v>
       </c>
-      <c r="E176" s="3">
+      <c r="E176">
         <v>48.8784990874505</v>
       </c>
       <c r="F176" t="s">
@@ -5319,10 +5344,10 @@
       <c r="C177" t="s">
         <v>173</v>
       </c>
-      <c r="D177" s="3">
+      <c r="D177">
         <v>2.3889009513157302</v>
       </c>
-      <c r="E177" s="3">
+      <c r="E177">
         <v>48.879534990320302</v>
       </c>
       <c r="F177" t="s">
@@ -5342,10 +5367,10 @@
       <c r="C178" t="s">
         <v>174</v>
       </c>
-      <c r="D178" s="3">
+      <c r="D178">
         <v>2.39313937036049</v>
       </c>
-      <c r="E178" s="3">
+      <c r="E178">
         <v>48.876723661025203</v>
       </c>
       <c r="F178" t="s">
@@ -5365,10 +5390,10 @@
       <c r="C179" t="s">
         <v>175</v>
       </c>
-      <c r="D179" s="3">
+      <c r="D179">
         <v>2.39858077069352</v>
       </c>
-      <c r="E179" s="3">
+      <c r="E179">
         <v>48.880159579716199</v>
       </c>
       <c r="F179" t="s">
@@ -5388,10 +5413,10 @@
       <c r="C180" t="s">
         <v>176</v>
       </c>
-      <c r="D180" s="3">
+      <c r="D180">
         <v>2.3932284712274901</v>
       </c>
-      <c r="E180" s="3">
+      <c r="E180">
         <v>48.881949213972597</v>
       </c>
       <c r="F180" t="s">
@@ -5411,10 +5436,10 @@
       <c r="C181" t="s">
         <v>173</v>
       </c>
-      <c r="D181" s="3">
+      <c r="D181">
         <v>2.3889009513157302</v>
       </c>
-      <c r="E181" s="3">
+      <c r="E181">
         <v>48.879534990320302</v>
       </c>
       <c r="F181" t="s">
@@ -5434,10 +5459,10 @@
       <c r="C182" t="s">
         <v>177</v>
       </c>
-      <c r="D182" s="3">
+      <c r="D182">
         <v>2.2783626618091901</v>
       </c>
-      <c r="E182" s="3">
+      <c r="E182">
         <v>48.836667893882698</v>
       </c>
       <c r="F182" t="s">
@@ -5457,10 +5482,10 @@
       <c r="C183" t="s">
         <v>178</v>
       </c>
-      <c r="D183" s="3">
+      <c r="D183">
         <v>2.2822419598550701</v>
       </c>
-      <c r="E183" s="3">
+      <c r="E183">
         <v>48.838660862711599</v>
       </c>
       <c r="F183" t="s">
@@ -5480,10 +5505,10 @@
       <c r="C184" t="s">
         <v>179</v>
       </c>
-      <c r="D184" s="3">
+      <c r="D184">
         <v>2.2879184311245502</v>
       </c>
-      <c r="E184" s="3">
+      <c r="E184">
         <v>48.841024160044903</v>
       </c>
       <c r="F184" t="s">
@@ -5503,10 +5528,10 @@
       <c r="C185" t="s">
         <v>180</v>
       </c>
-      <c r="D185" s="3">
+      <c r="D185">
         <v>2.2918472203679601</v>
       </c>
-      <c r="E185" s="3">
+      <c r="E185">
         <v>48.842684333848297</v>
       </c>
       <c r="F185" t="s">
@@ -5526,10 +5551,10 @@
       <c r="C186" t="s">
         <v>181</v>
       </c>
-      <c r="D186" s="3">
+      <c r="D186">
         <v>2.2937968421928598</v>
       </c>
-      <c r="E186" s="3">
+      <c r="E186">
         <v>48.844611511420197</v>
       </c>
       <c r="F186" t="s">
@@ -5549,10 +5574,10 @@
       <c r="C187" t="s">
         <v>131</v>
       </c>
-      <c r="D187" s="3">
+      <c r="D187">
         <v>2.2985257262366301</v>
       </c>
-      <c r="E187" s="3">
+      <c r="E187">
         <v>48.849630803484203</v>
       </c>
       <c r="F187" t="s">
@@ -5572,10 +5597,10 @@
       <c r="C188" t="s">
         <v>182</v>
       </c>
-      <c r="D188" s="3">
+      <c r="D188">
         <v>2.3063456838200702</v>
       </c>
-      <c r="E188" s="3">
+      <c r="E188">
         <v>48.854919659638803</v>
       </c>
       <c r="F188" t="s">
@@ -5595,10 +5620,10 @@
       <c r="C189" t="s">
         <v>184</v>
       </c>
-      <c r="D189" s="3">
+      <c r="D189">
         <v>2.3104735359369801</v>
       </c>
-      <c r="E189" s="3">
+      <c r="E189">
         <v>48.857727022586303</v>
       </c>
       <c r="F189" t="s">
@@ -5618,10 +5643,10 @@
       <c r="C190" t="s">
         <v>185</v>
       </c>
-      <c r="D190" s="3">
+      <c r="D190">
         <v>2.3146326604445102</v>
       </c>
-      <c r="E190" s="3">
+      <c r="E190">
         <v>48.861092010432898</v>
       </c>
       <c r="F190" t="s">
@@ -5641,10 +5666,10 @@
       <c r="C191" t="s">
         <v>14</v>
       </c>
-      <c r="D191" s="3">
+      <c r="D191">
         <v>2.3229614457982501</v>
       </c>
-      <c r="E191" s="3">
+      <c r="E191">
         <v>48.866557992001603</v>
       </c>
       <c r="F191" t="s">
@@ -5664,10 +5689,10 @@
       <c r="C192" t="s">
         <v>186</v>
       </c>
-      <c r="D192" s="3">
+      <c r="D192">
         <v>2.32581004879327</v>
       </c>
-      <c r="E192" s="3">
+      <c r="E192">
         <v>48.870544675768102</v>
       </c>
       <c r="F192" t="s">
@@ -5687,10 +5712,10 @@
       <c r="C193" t="s">
         <v>67</v>
       </c>
-      <c r="D193" s="3">
+      <c r="D193">
         <v>2.3310472867112302</v>
       </c>
-      <c r="E193" s="3">
+      <c r="E193">
         <v>48.871437428049099</v>
       </c>
       <c r="F193" t="s">
@@ -5710,10 +5735,10 @@
       <c r="C194" t="s">
         <v>187</v>
       </c>
-      <c r="D194" s="3">
+      <c r="D194">
         <v>2.33859122153854</v>
       </c>
-      <c r="E194" s="3">
+      <c r="E194">
         <v>48.872135869369799</v>
       </c>
       <c r="F194" t="s">
@@ -5733,10 +5758,10 @@
       <c r="C195" t="s">
         <v>188</v>
       </c>
-      <c r="D195" s="3">
+      <c r="D195">
         <v>2.3432072664050798</v>
       </c>
-      <c r="E195" s="3">
+      <c r="E195">
         <v>48.871504768814603</v>
       </c>
       <c r="F195" t="s">
@@ -5756,10 +5781,10 @@
       <c r="C196" t="s">
         <v>189</v>
       </c>
-      <c r="D196" s="3">
+      <c r="D196">
         <v>2.3484813657183801</v>
       </c>
-      <c r="E196" s="3">
+      <c r="E196">
         <v>48.8705712985549</v>
       </c>
       <c r="F196" t="s">
@@ -5779,10 +5804,10 @@
       <c r="C197" t="s">
         <v>92</v>
       </c>
-      <c r="D197" s="3">
+      <c r="D197">
         <v>2.3544916165638301</v>
       </c>
-      <c r="E197" s="3">
+      <c r="E197">
         <v>48.869623581689503</v>
       </c>
       <c r="F197" t="s">
@@ -5802,10 +5827,10 @@
       <c r="C198" t="s">
         <v>76</v>
       </c>
-      <c r="D198" s="3">
+      <c r="D198">
         <v>2.3633023407804501</v>
       </c>
-      <c r="E198" s="3">
+      <c r="E198">
         <v>48.867512356863003</v>
       </c>
       <c r="F198" t="s">
@@ -5825,10 +5850,10 @@
       <c r="C199" t="s">
         <v>190</v>
       </c>
-      <c r="D199" s="3">
+      <c r="D199">
         <v>2.3667452977427001</v>
       </c>
-      <c r="E199" s="3">
+      <c r="E199">
         <v>48.863069882502501</v>
       </c>
       <c r="F199" t="s">
@@ -5848,10 +5873,10 @@
       <c r="C200" t="s">
         <v>191</v>
       </c>
-      <c r="D200" s="3">
+      <c r="D200">
         <v>2.3672615397172598</v>
       </c>
-      <c r="E200" s="3">
+      <c r="E200">
         <v>48.860968144808197</v>
       </c>
       <c r="F200" t="s">
@@ -5871,10 +5896,10 @@
       <c r="C201" t="s">
         <v>192</v>
       </c>
-      <c r="D201" s="3">
+      <c r="D201">
         <v>2.3680950853859901</v>
       </c>
-      <c r="E201" s="3">
+      <c r="E201">
         <v>48.857087366872101</v>
       </c>
       <c r="F201" t="s">
@@ -5894,10 +5919,10 @@
       <c r="C202" t="s">
         <v>23</v>
       </c>
-      <c r="D202" s="3">
+      <c r="D202">
         <v>2.3687189610340802</v>
       </c>
-      <c r="E202" s="3">
+      <c r="E202">
         <v>48.852054292549496</v>
       </c>
       <c r="F202" t="s">
@@ -5917,10 +5942,10 @@
       <c r="C203" t="s">
         <v>193</v>
       </c>
-      <c r="D203" s="3">
+      <c r="D203">
         <v>2.3761412233185899</v>
       </c>
-      <c r="E203" s="3">
+      <c r="E203">
         <v>48.851337765850097</v>
       </c>
       <c r="F203" t="s">
@@ -5940,10 +5965,10 @@
       <c r="C204" t="s">
         <v>194</v>
       </c>
-      <c r="D204" s="3">
+      <c r="D204">
         <v>2.3840285663830998</v>
       </c>
-      <c r="E204" s="3">
+      <c r="E204">
         <v>48.850110543185401</v>
       </c>
       <c r="F204" t="s">
@@ -5963,10 +5988,10 @@
       <c r="C205" t="s">
         <v>26</v>
       </c>
-      <c r="D205" s="3">
+      <c r="D205">
         <v>2.38720107040939</v>
       </c>
-      <c r="E205" s="3">
+      <c r="E205">
         <v>48.847212925749702</v>
       </c>
       <c r="F205" t="s">
@@ -5986,10 +6011,10 @@
       <c r="C206" t="s">
         <v>195</v>
       </c>
-      <c r="D206" s="3">
+      <c r="D206">
         <v>2.39040001363536</v>
       </c>
-      <c r="E206" s="3">
+      <c r="E206">
         <v>48.844005074760602</v>
       </c>
       <c r="F206" t="s">
@@ -6009,10 +6034,10 @@
       <c r="C207" t="s">
         <v>144</v>
       </c>
-      <c r="D207" s="3">
+      <c r="D207">
         <v>2.3961486284893598</v>
       </c>
-      <c r="E207" s="3">
+      <c r="E207">
         <v>48.839434007104799</v>
       </c>
       <c r="F207" t="s">
@@ -6032,10 +6057,10 @@
       <c r="C208" t="s">
         <v>196</v>
       </c>
-      <c r="D208" s="3">
+      <c r="D208">
         <v>2.402366739988</v>
       </c>
-      <c r="E208" s="3">
+      <c r="E208">
         <v>48.837077430087398</v>
       </c>
       <c r="F208" t="s">
@@ -6055,10 +6080,10 @@
       <c r="C209" t="s">
         <v>197</v>
       </c>
-      <c r="D209" s="3">
+      <c r="D209">
         <v>2.4058739129875599</v>
       </c>
-      <c r="E209" s="3">
+      <c r="E209">
         <v>48.835017373145497</v>
       </c>
       <c r="F209" t="s">
@@ -6078,10 +6103,10 @@
       <c r="C210" t="s">
         <v>198</v>
       </c>
-      <c r="D210" s="3">
+      <c r="D210">
         <v>2.4025118728500701</v>
       </c>
-      <c r="E210" s="3">
+      <c r="E210">
         <v>48.833449221931097</v>
       </c>
       <c r="F210" t="s">
@@ -6101,10 +6126,10 @@
       <c r="C211" t="s">
         <v>199</v>
       </c>
-      <c r="D211" s="3">
+      <c r="D211">
         <v>2.2570461929221399</v>
       </c>
-      <c r="E211" s="3">
+      <c r="E211">
         <v>48.837958404671198</v>
       </c>
       <c r="F211" t="s">
@@ -6124,10 +6149,10 @@
       <c r="C212" t="s">
         <v>200</v>
       </c>
-      <c r="D212" s="3">
+      <c r="D212">
         <v>2.2598008451443401</v>
       </c>
-      <c r="E212" s="3">
+      <c r="E212">
         <v>48.842580275328203</v>
       </c>
       <c r="F212" t="s">
@@ -6147,10 +6172,10 @@
       <c r="C213" t="s">
         <v>201</v>
       </c>
-      <c r="D213" s="3">
+      <c r="D213">
         <v>2.2615119169051998</v>
       </c>
-      <c r="E213" s="3">
+      <c r="E213">
         <v>48.844911226614997</v>
       </c>
       <c r="F213" t="s">
@@ -6170,10 +6195,10 @@
       <c r="C214" t="s">
         <v>202</v>
       </c>
-      <c r="D214" s="3">
+      <c r="D214">
         <v>2.26398952533332</v>
       </c>
-      <c r="E214" s="3">
+      <c r="E214">
         <v>48.847975353228001</v>
       </c>
       <c r="F214" t="s">
@@ -6193,10 +6218,10 @@
       <c r="C215" t="s">
         <v>203</v>
       </c>
-      <c r="D215" s="3">
+      <c r="D215">
         <v>2.26793329164706</v>
       </c>
-      <c r="E215" s="3">
+      <c r="E215">
         <v>48.852433417777299</v>
       </c>
       <c r="F215" t="s">
@@ -6216,10 +6241,10 @@
       <c r="C216" t="s">
         <v>204</v>
       </c>
-      <c r="D216" s="3">
+      <c r="D216">
         <v>2.2699481579346301</v>
       </c>
-      <c r="E216" s="3">
+      <c r="E216">
         <v>48.855503557447399</v>
       </c>
       <c r="F216" t="s">
@@ -6239,10 +6264,10 @@
       <c r="C217" t="s">
         <v>205</v>
       </c>
-      <c r="D217" s="3">
+      <c r="D217">
         <v>2.2740962446697202</v>
       </c>
-      <c r="E217" s="3">
+      <c r="E217">
         <v>48.8580919659504</v>
       </c>
       <c r="F217" t="s">
@@ -6262,10 +6287,10 @@
       <c r="C218" t="s">
         <v>206</v>
       </c>
-      <c r="D218" s="3">
+      <c r="D218">
         <v>2.2778858979590502</v>
       </c>
-      <c r="E218" s="3">
+      <c r="E218">
         <v>48.863951707931797</v>
       </c>
       <c r="F218" t="s">
@@ -6285,10 +6310,10 @@
       <c r="C219" t="s">
         <v>127</v>
       </c>
-      <c r="D219" s="3">
+      <c r="D219">
         <v>2.2874927969664398</v>
       </c>
-      <c r="E219" s="3">
+      <c r="E219">
         <v>48.8634876640714</v>
       </c>
       <c r="F219" t="s">
@@ -6308,10 +6333,10 @@
       <c r="C220" t="s">
         <v>207</v>
       </c>
-      <c r="D220" s="3">
+      <c r="D220">
         <v>2.2938642256822699</v>
       </c>
-      <c r="E220" s="3">
+      <c r="E220">
         <v>48.864780021309301</v>
       </c>
       <c r="F220" t="s">
@@ -6331,10 +6356,10 @@
       <c r="C221" t="s">
         <v>208</v>
       </c>
-      <c r="D221" s="3">
+      <c r="D221">
         <v>2.30110435239266</v>
       </c>
-      <c r="E221" s="3">
+      <c r="E221">
         <v>48.864647146957701</v>
       </c>
       <c r="F221" t="s">
@@ -6354,10 +6379,10 @@
       <c r="C222" t="s">
         <v>12</v>
       </c>
-      <c r="D222" s="3">
+      <c r="D222">
         <v>2.3094881923371098</v>
       </c>
-      <c r="E222" s="3">
+      <c r="E222">
         <v>48.868724887050398</v>
       </c>
       <c r="F222" t="s">
@@ -6377,10 +6402,10 @@
       <c r="C223" t="s">
         <v>209</v>
       </c>
-      <c r="D223" s="3">
+      <c r="D223">
         <v>2.3101372056878202</v>
       </c>
-      <c r="E223" s="3">
+      <c r="E223">
         <v>48.8721551301293</v>
       </c>
       <c r="F223" t="s">
@@ -6400,10 +6425,10 @@
       <c r="C224" t="s">
         <v>210</v>
       </c>
-      <c r="D224" s="3">
+      <c r="D224">
         <v>2.31601069312102</v>
       </c>
-      <c r="E224" s="3">
+      <c r="E224">
         <v>48.873447914847098</v>
       </c>
       <c r="F224" t="s">
@@ -6423,10 +6448,10 @@
       <c r="C225" t="s">
         <v>211</v>
       </c>
-      <c r="D225" s="3">
+      <c r="D225">
         <v>2.32101359780859</v>
       </c>
-      <c r="E225" s="3">
+      <c r="E225">
         <v>48.874546611986801</v>
       </c>
       <c r="F225" t="s">
@@ -6446,10 +6471,10 @@
       <c r="C226" t="s">
         <v>66</v>
       </c>
-      <c r="D226" s="3">
+      <c r="D226">
         <v>2.3276511034187801</v>
       </c>
-      <c r="E226" s="3">
+      <c r="E226">
         <v>48.873666750997003</v>
       </c>
       <c r="F226" t="s">
@@ -6469,10 +6494,10 @@
       <c r="C227" t="s">
         <v>156</v>
       </c>
-      <c r="D227" s="3">
+      <c r="D227">
         <v>2.3337385944086999</v>
       </c>
-      <c r="E227" s="3">
+      <c r="E227">
         <v>48.873134204826599</v>
       </c>
       <c r="F227" t="s">
@@ -6492,10 +6517,10 @@
       <c r="C228" t="s">
         <v>187</v>
       </c>
-      <c r="D228" s="3">
+      <c r="D228">
         <v>2.33859122153854</v>
       </c>
-      <c r="E228" s="3">
+      <c r="E228">
         <v>48.872135869369799</v>
       </c>
       <c r="F228" t="s">
@@ -6515,10 +6540,10 @@
       <c r="C229" t="s">
         <v>188</v>
       </c>
-      <c r="D229" s="3">
+      <c r="D229">
         <v>2.3432072664050798</v>
       </c>
-      <c r="E229" s="3">
+      <c r="E229">
         <v>48.871504768814603</v>
       </c>
       <c r="F229" t="s">
@@ -6538,10 +6563,10 @@
       <c r="C230" t="s">
         <v>189</v>
       </c>
-      <c r="D230" s="3">
+      <c r="D230">
         <v>2.3484813657183801</v>
       </c>
-      <c r="E230" s="3">
+      <c r="E230">
         <v>48.8705712985549</v>
       </c>
       <c r="F230" t="s">
@@ -6561,10 +6586,10 @@
       <c r="C231" t="s">
         <v>92</v>
       </c>
-      <c r="D231" s="3">
+      <c r="D231">
         <v>2.3544916165638301</v>
       </c>
-      <c r="E231" s="3">
+      <c r="E231">
         <v>48.869623581689503</v>
       </c>
       <c r="F231" t="s">
@@ -6584,10 +6609,10 @@
       <c r="C232" t="s">
         <v>76</v>
       </c>
-      <c r="D232" s="3">
+      <c r="D232">
         <v>2.3633023407804501</v>
       </c>
-      <c r="E232" s="3">
+      <c r="E232">
         <v>48.867512356863003</v>
       </c>
       <c r="F232" t="s">
@@ -6607,10 +6632,10 @@
       <c r="C233" t="s">
         <v>115</v>
       </c>
-      <c r="D233" s="3">
+      <c r="D233">
         <v>2.3681558453945502</v>
       </c>
-      <c r="E233" s="3">
+      <c r="E233">
         <v>48.864777097573203</v>
       </c>
       <c r="F233" t="s">
@@ -6630,10 +6655,10 @@
       <c r="C234" t="s">
         <v>212</v>
       </c>
-      <c r="D234" s="3">
+      <c r="D234">
         <v>2.37388053821154</v>
       </c>
-      <c r="E234" s="3">
+      <c r="E234">
         <v>48.861416656960998</v>
       </c>
       <c r="F234" t="s">
@@ -6653,10 +6678,10 @@
       <c r="C235" t="s">
         <v>213</v>
       </c>
-      <c r="D235" s="3">
+      <c r="D235">
         <v>2.3800316941488</v>
       </c>
-      <c r="E235" s="3">
+      <c r="E235">
         <v>48.857662433437802</v>
       </c>
       <c r="F235" t="s">
@@ -6676,10 +6701,10 @@
       <c r="C236" t="s">
         <v>214</v>
       </c>
-      <c r="D236" s="3">
+      <c r="D236">
         <v>2.3847823964488799</v>
       </c>
-      <c r="E236" s="3">
+      <c r="E236">
         <v>48.854939442500303</v>
       </c>
       <c r="F236" t="s">
@@ -6699,10 +6724,10 @@
       <c r="C237" t="s">
         <v>215</v>
       </c>
-      <c r="D237" s="3">
+      <c r="D237">
         <v>2.3891047050322398</v>
       </c>
-      <c r="E237" s="3">
+      <c r="E237">
         <v>48.852214072383703</v>
       </c>
       <c r="F237" t="s">
@@ -6722,10 +6747,10 @@
       <c r="C238" t="s">
         <v>27</v>
       </c>
-      <c r="D238" s="3">
+      <c r="D238">
         <v>2.3958439887237302</v>
       </c>
-      <c r="E238" s="3">
+      <c r="E238">
         <v>48.848084289025699</v>
       </c>
       <c r="F238" t="s">
@@ -6745,10 +6770,10 @@
       <c r="C239" t="s">
         <v>216</v>
       </c>
-      <c r="D239" s="3">
+      <c r="D239">
         <v>2.4011707693684099</v>
       </c>
-      <c r="E239" s="3">
+      <c r="E239">
         <v>48.851762438884002</v>
       </c>
       <c r="F239" t="s">
@@ -6768,10 +6793,10 @@
       <c r="C240" t="s">
         <v>217</v>
       </c>
-      <c r="D240" s="3">
+      <c r="D240">
         <v>2.4060385447980499</v>
       </c>
-      <c r="E240" s="3">
+      <c r="E240">
         <v>48.852731019531802</v>
       </c>
       <c r="F240" t="s">
@@ -6791,10 +6816,10 @@
       <c r="C241" t="s">
         <v>218</v>
       </c>
-      <c r="D241" s="3">
+      <c r="D241">
         <v>2.41071815402749</v>
       </c>
-      <c r="E241" s="3">
+      <c r="E241">
         <v>48.853482630258299</v>
       </c>
       <c r="F241" t="s">
@@ -6814,10 +6839,10 @@
       <c r="C242" t="s">
         <v>119</v>
       </c>
-      <c r="D242" s="3">
+      <c r="D242">
         <v>2.3641773106918298</v>
       </c>
-      <c r="E242" s="3">
+      <c r="E242">
         <v>48.843405408577098</v>
       </c>
       <c r="F242" t="s">
@@ -6837,10 +6862,10 @@
       <c r="C243" t="s">
         <v>161</v>
       </c>
-      <c r="D243" s="3">
+      <c r="D243">
         <v>2.3549316718232198</v>
       </c>
-      <c r="E243" s="3">
+      <c r="E243">
         <v>48.8461978906887</v>
       </c>
       <c r="F243" t="s">
@@ -6860,10 +6885,10 @@
       <c r="C244" t="s">
         <v>219</v>
       </c>
-      <c r="D244" s="3">
+      <c r="D244">
         <v>2.3513280016731701</v>
       </c>
-      <c r="E244" s="3">
+      <c r="E244">
         <v>48.8467000343148</v>
       </c>
       <c r="F244" t="s">
@@ -6883,10 +6908,10 @@
       <c r="C245" t="s">
         <v>220</v>
       </c>
-      <c r="D245" s="3">
+      <c r="D245">
         <v>2.3482804131694799</v>
       </c>
-      <c r="E245" s="3">
+      <c r="E245">
         <v>48.850195465121203</v>
       </c>
       <c r="F245" t="s">
@@ -6906,10 +6931,10 @@
       <c r="C246" t="s">
         <v>221</v>
       </c>
-      <c r="D246" s="3">
+      <c r="D246">
         <v>2.3448963012120698</v>
       </c>
-      <c r="E246" s="3">
+      <c r="E246">
         <v>48.851026875926202</v>
       </c>
       <c r="F246" t="s">
@@ -6929,10 +6954,10 @@
       <c r="C247" t="s">
         <v>98</v>
       </c>
-      <c r="D247" s="3">
+      <c r="D247">
         <v>2.34069229106652</v>
       </c>
-      <c r="E247" s="3">
+      <c r="E247">
         <v>48.8520245535667</v>
       </c>
       <c r="F247" t="s">
@@ -6952,10 +6977,10 @@
       <c r="C248" t="s">
         <v>222</v>
       </c>
-      <c r="D248" s="3">
+      <c r="D248">
         <v>2.3351428193464701</v>
       </c>
-      <c r="E248" s="3">
+      <c r="E248">
         <v>48.8528437373513</v>
       </c>
       <c r="F248" t="s">
@@ -6975,10 +7000,10 @@
       <c r="C249" t="s">
         <v>223</v>
       </c>
-      <c r="D249" s="3">
+      <c r="D249">
         <v>2.3268596631217302</v>
       </c>
-      <c r="E249" s="3">
+      <c r="E249">
         <v>48.851565305443103</v>
       </c>
       <c r="F249" t="s">
@@ -6998,10 +7023,10 @@
       <c r="C250" t="s">
         <v>224</v>
       </c>
-      <c r="D250" s="3">
+      <c r="D250">
         <v>2.32135124235473</v>
       </c>
-      <c r="E250" s="3">
+      <c r="E250">
         <v>48.848894569110598</v>
       </c>
       <c r="F250" t="s">
@@ -7021,10 +7046,10 @@
       <c r="C251" t="s">
         <v>225</v>
       </c>
-      <c r="D251" s="3">
+      <c r="D251">
         <v>2.3165212194565199</v>
       </c>
-      <c r="E251" s="3">
+      <c r="E251">
         <v>48.847009892663699</v>
       </c>
       <c r="F251" t="s">
@@ -7044,10 +7069,10 @@
       <c r="C252" t="s">
         <v>226</v>
       </c>
-      <c r="D252" s="3">
+      <c r="D252">
         <v>2.3071378494033801</v>
       </c>
-      <c r="E252" s="3">
+      <c r="E252">
         <v>48.8471672690467</v>
       </c>
       <c r="F252" t="s">
@@ -7067,10 +7092,10 @@
       <c r="C253" t="s">
         <v>131</v>
       </c>
-      <c r="D253" s="3">
+      <c r="D253">
         <v>2.2985257262366301</v>
       </c>
-      <c r="E253" s="3">
+      <c r="E253">
         <v>48.849630803484203</v>
       </c>
       <c r="F253" t="s">
@@ -7090,10 +7115,10 @@
       <c r="C254" t="s">
         <v>227</v>
       </c>
-      <c r="D254" s="3">
+      <c r="D254">
         <v>2.29501899714354</v>
       </c>
-      <c r="E254" s="3">
+      <c r="E254">
         <v>48.847038012756897</v>
       </c>
       <c r="F254" t="s">
@@ -7113,10 +7138,10 @@
       <c r="C255" t="s">
         <v>228</v>
       </c>
-      <c r="D255" s="3">
+      <c r="D255">
         <v>2.2856210133667099</v>
       </c>
-      <c r="E255" s="3">
+      <c r="E255">
         <v>48.846604531449103</v>
       </c>
       <c r="F255" t="s">
@@ -7136,10 +7161,10 @@
       <c r="C256" t="s">
         <v>229</v>
       </c>
-      <c r="D256" s="3">
+      <c r="D256">
         <v>2.2780094965273499</v>
       </c>
-      <c r="E256" s="3">
+      <c r="E256">
         <v>48.846181105274901</v>
       </c>
       <c r="F256" t="s">
@@ -7159,10 +7184,10 @@
       <c r="C257" t="s">
         <v>230</v>
       </c>
-      <c r="D257" s="3">
+      <c r="D257">
         <v>2.2691113890218899</v>
       </c>
-      <c r="E257" s="3">
+      <c r="E257">
         <v>48.847143360508902</v>
       </c>
       <c r="F257" t="s">
@@ -7182,10 +7207,10 @@
       <c r="C258" t="s">
         <v>202</v>
       </c>
-      <c r="D258" s="3">
+      <c r="D258">
         <v>2.26398952533332</v>
       </c>
-      <c r="E258" s="3">
+      <c r="E258">
         <v>48.847975353228001</v>
       </c>
       <c r="F258" t="s">
@@ -7205,10 +7230,10 @@
       <c r="C259" t="s">
         <v>231</v>
       </c>
-      <c r="D259" s="3">
+      <c r="D259">
         <v>2.2582807445955302</v>
       </c>
-      <c r="E259" s="3">
+      <c r="E259">
         <v>48.847904122681001</v>
       </c>
       <c r="F259" t="s">
@@ -7228,10 +7253,10 @@
       <c r="C260" t="s">
         <v>201</v>
       </c>
-      <c r="D260" s="3">
+      <c r="D260">
         <v>2.2615119169051998</v>
       </c>
-      <c r="E260" s="3">
+      <c r="E260">
         <v>48.844911226614997</v>
       </c>
       <c r="F260" t="s">
@@ -7251,10 +7276,10 @@
       <c r="C261" t="s">
         <v>232</v>
       </c>
-      <c r="D261" s="3">
+      <c r="D261">
         <v>2.26690547594028</v>
       </c>
-      <c r="E261" s="3">
+      <c r="E261">
         <v>48.8450882982305</v>
       </c>
       <c r="F261" t="s">
@@ -7274,10 +7299,10 @@
       <c r="C262" t="s">
         <v>233</v>
       </c>
-      <c r="D262" s="3">
+      <c r="D262">
         <v>2.2730641263728302</v>
       </c>
-      <c r="E262" s="3">
+      <c r="E262">
         <v>48.847077506397703</v>
       </c>
       <c r="F262" t="s">
@@ -7297,10 +7322,10 @@
       <c r="C263" t="s">
         <v>19</v>
       </c>
-      <c r="D263" s="3">
+      <c r="D263">
         <v>2.34816099123457</v>
       </c>
-      <c r="E263" s="3">
+      <c r="E263">
         <v>48.856953459837101</v>
       </c>
       <c r="F263" t="s">
@@ -7320,10 +7345,10 @@
       <c r="C264" t="s">
         <v>21</v>
       </c>
-      <c r="D264" s="3">
+      <c r="D264">
         <v>2.3520676701390899</v>
       </c>
-      <c r="E264" s="3">
+      <c r="E264">
         <v>48.857352404237702</v>
       </c>
       <c r="F264" t="s">
@@ -7343,10 +7368,10 @@
       <c r="C265" t="s">
         <v>234</v>
       </c>
-      <c r="D265" s="3">
+      <c r="D265">
         <v>2.35327394859477</v>
       </c>
-      <c r="E265" s="3">
+      <c r="E265">
         <v>48.861190156002202</v>
       </c>
       <c r="F265" t="s">
@@ -7366,10 +7391,10 @@
       <c r="C266" t="s">
         <v>73</v>
       </c>
-      <c r="D266" s="3">
+      <c r="D266">
         <v>2.35650814364354</v>
       </c>
-      <c r="E266" s="3">
+      <c r="E266">
         <v>48.865299611696798</v>
       </c>
       <c r="F266" t="s">
@@ -7389,10 +7414,10 @@
       <c r="C267" t="s">
         <v>76</v>
       </c>
-      <c r="D267" s="3">
+      <c r="D267">
         <v>2.3633023407804501</v>
       </c>
-      <c r="E267" s="3">
+      <c r="E267">
         <v>48.867512356863003</v>
       </c>
       <c r="F267" t="s">
@@ -7412,10 +7437,10 @@
       <c r="C268" t="s">
         <v>235</v>
       </c>
-      <c r="D268" s="3">
+      <c r="D268">
         <v>2.37076443474839</v>
       </c>
-      <c r="E268" s="3">
+      <c r="E268">
         <v>48.870007016890497</v>
       </c>
       <c r="F268" t="s">
@@ -7435,10 +7460,10 @@
       <c r="C269" t="s">
         <v>51</v>
       </c>
-      <c r="D269" s="3">
+      <c r="D269">
         <v>2.3767355865572801</v>
       </c>
-      <c r="E269" s="3">
+      <c r="E269">
         <v>48.872286601164703</v>
       </c>
       <c r="F269" t="s">
@@ -7458,10 +7483,10 @@
       <c r="C270" t="s">
         <v>236</v>
       </c>
-      <c r="D270" s="3">
+      <c r="D270">
         <v>2.38520291556953</v>
       </c>
-      <c r="E270" s="3">
+      <c r="E270">
         <v>48.873818789232502</v>
       </c>
       <c r="F270" t="s">
@@ -7481,10 +7506,10 @@
       <c r="C271" t="s">
         <v>237</v>
       </c>
-      <c r="D271" s="3">
+      <c r="D271">
         <v>2.3893253789100899</v>
       </c>
-      <c r="E271" s="3">
+      <c r="E271">
         <v>48.875247347693303</v>
       </c>
       <c r="F271" t="s">
@@ -7504,10 +7529,10 @@
       <c r="C272" t="s">
         <v>238</v>
       </c>
-      <c r="D272" s="3">
+      <c r="D272">
         <v>2.39313937036049</v>
       </c>
-      <c r="E272" s="3">
+      <c r="E272">
         <v>48.876723661025203</v>
       </c>
       <c r="F272" t="s">
@@ -7527,10 +7552,10 @@
       <c r="C273" t="s">
         <v>239</v>
       </c>
-      <c r="D273" s="3">
+      <c r="D273">
         <v>2.3986480899605902</v>
       </c>
-      <c r="E273" s="3">
+      <c r="E273">
         <v>48.875510383232701</v>
       </c>
       <c r="F273" t="s">
@@ -7550,10 +7575,10 @@
       <c r="C274" t="s">
         <v>82</v>
       </c>
-      <c r="D274" s="3">
+      <c r="D274">
         <v>2.4070619733807899</v>
       </c>
-      <c r="E274" s="3">
+      <c r="E274">
         <v>48.876568598079899</v>
       </c>
       <c r="F274" t="s">
@@ -7573,10 +7598,10 @@
       <c r="C275" t="s">
         <v>240</v>
       </c>
-      <c r="D275" s="3">
+      <c r="D275">
         <v>2.3592485423103602</v>
       </c>
-      <c r="E275" s="3">
+      <c r="E275">
         <v>48.897402421722497</v>
       </c>
       <c r="F275" t="s">
@@ -7596,10 +7621,10 @@
       <c r="C276" t="s">
         <v>241</v>
       </c>
-      <c r="D276" s="3">
+      <c r="D276">
         <v>2.3598084780840201</v>
       </c>
-      <c r="E276" s="3">
+      <c r="E276">
         <v>48.890579577619199</v>
       </c>
       <c r="F276" t="s">
@@ -7619,10 +7644,10 @@
       <c r="C277" t="s">
         <v>87</v>
       </c>
-      <c r="D277" s="3">
+      <c r="D277">
         <v>2.3496815417224699</v>
       </c>
-      <c r="E277" s="3">
+      <c r="E277">
         <v>48.891280438896501</v>
       </c>
       <c r="F277" t="s">
@@ -7642,10 +7667,10 @@
       <c r="C278" t="s">
         <v>242</v>
       </c>
-      <c r="D278" s="3">
+      <c r="D278">
         <v>2.34432002938048</v>
       </c>
-      <c r="E278" s="3">
+      <c r="E278">
         <v>48.892492267253999</v>
       </c>
       <c r="F278" t="s">
@@ -7665,10 +7690,10 @@
       <c r="C279" t="s">
         <v>243</v>
       </c>
-      <c r="D279" s="3">
+      <c r="D279">
         <v>2.33858382438319</v>
       </c>
-      <c r="E279" s="3">
+      <c r="E279">
         <v>48.889681809018803</v>
       </c>
       <c r="F279" t="s">
@@ -7688,10 +7713,10 @@
       <c r="C280" t="s">
         <v>244</v>
       </c>
-      <c r="D280" s="3">
+      <c r="D280">
         <v>2.3383946352209</v>
       </c>
-      <c r="E280" s="3">
+      <c r="E280">
         <v>48.884392717043397</v>
       </c>
       <c r="F280" t="s">
@@ -7711,10 +7736,10 @@
       <c r="C281" t="s">
         <v>42</v>
       </c>
-      <c r="D281" s="3">
+      <c r="D281">
         <v>2.3372111647011198</v>
       </c>
-      <c r="E281" s="3">
+      <c r="E281">
         <v>48.8820209311193</v>
       </c>
       <c r="F281" t="s">
@@ -7734,10 +7759,10 @@
       <c r="C282" t="s">
         <v>245</v>
       </c>
-      <c r="D282" s="3">
+      <c r="D282">
         <v>2.3375706403796599</v>
       </c>
-      <c r="E282" s="3">
+      <c r="E282">
         <v>48.878416593953702</v>
       </c>
       <c r="F282" t="s">
@@ -7757,10 +7782,10 @@
       <c r="C283" t="s">
         <v>246</v>
       </c>
-      <c r="D283" s="3">
+      <c r="D283">
         <v>2.3378736192226302</v>
       </c>
-      <c r="E283" s="3">
+      <c r="E283">
         <v>48.876035030332503</v>
       </c>
       <c r="F283" t="s">
@@ -7780,10 +7805,10 @@
       <c r="C284" t="s">
         <v>247</v>
       </c>
-      <c r="D284" s="3">
+      <c r="D284">
         <v>2.3330491724182298</v>
       </c>
-      <c r="E284" s="3">
+      <c r="E284">
         <v>48.876336506359301</v>
       </c>
       <c r="F284" t="s">
@@ -7803,10 +7828,10 @@
       <c r="C285" t="s">
         <v>65</v>
       </c>
-      <c r="D285" s="3">
+      <c r="D285">
         <v>2.3254883906726098</v>
       </c>
-      <c r="E285" s="3">
+      <c r="E285">
         <v>48.875381315059897</v>
       </c>
       <c r="F285" t="s">
@@ -7826,10 +7851,10 @@
       <c r="C286" t="s">
         <v>186</v>
       </c>
-      <c r="D286" s="3">
+      <c r="D286">
         <v>2.32581004879327</v>
       </c>
-      <c r="E286" s="3">
+      <c r="E286">
         <v>48.870544675768102</v>
       </c>
       <c r="F286" t="s">
@@ -7849,10 +7874,10 @@
       <c r="C287" t="s">
         <v>14</v>
       </c>
-      <c r="D287" s="3">
+      <c r="D287">
         <v>2.3229614457982501</v>
       </c>
-      <c r="E287" s="3">
+      <c r="E287">
         <v>48.866557992001603</v>
       </c>
       <c r="F287" t="s">
@@ -7872,10 +7897,10 @@
       <c r="C288" t="s">
         <v>248</v>
       </c>
-      <c r="D288" s="3">
+      <c r="D288">
         <v>2.3205758366475502</v>
       </c>
-      <c r="E288" s="3">
+      <c r="E288">
         <v>48.861071938577901</v>
       </c>
       <c r="F288" t="s">
@@ -7895,10 +7920,10 @@
       <c r="C289" t="s">
         <v>249</v>
       </c>
-      <c r="D289" s="3">
+      <c r="D289">
         <v>2.3230759642515402</v>
       </c>
-      <c r="E289" s="3">
+      <c r="E289">
         <v>48.858531948780303</v>
       </c>
       <c r="F289" t="s">
@@ -7918,10 +7943,10 @@
       <c r="C290" t="s">
         <v>250</v>
       </c>
-      <c r="D290" s="3">
+      <c r="D290">
         <v>2.32569989845241</v>
       </c>
-      <c r="E290" s="3">
+      <c r="E290">
         <v>48.855884677537198</v>
       </c>
       <c r="F290" t="s">
@@ -7941,10 +7966,10 @@
       <c r="C291" t="s">
         <v>223</v>
       </c>
-      <c r="D291" s="3">
+      <c r="D291">
         <v>2.3268596631217302</v>
       </c>
-      <c r="E291" s="3">
+      <c r="E291">
         <v>48.851565305443103</v>
       </c>
       <c r="F291" t="s">
@@ -7964,10 +7989,10 @@
       <c r="C292" t="s">
         <v>251</v>
       </c>
-      <c r="D292" s="3">
+      <c r="D292">
         <v>2.3277871847873799</v>
       </c>
-      <c r="E292" s="3">
+      <c r="E292">
         <v>48.848332828092303</v>
       </c>
       <c r="F292" t="s">
@@ -7987,10 +8012,10 @@
       <c r="C293" t="s">
         <v>252</v>
       </c>
-      <c r="D293" s="3">
+      <c r="D293">
         <v>2.3286958054986999</v>
       </c>
-      <c r="E293" s="3">
+      <c r="E293">
         <v>48.845077744689497</v>
       </c>
       <c r="F293" t="s">
@@ -8010,10 +8035,10 @@
       <c r="C294" t="s">
         <v>102</v>
       </c>
-      <c r="D294" s="3">
+      <c r="D294">
         <v>2.3239891852049999</v>
       </c>
-      <c r="E294" s="3">
+      <c r="E294">
         <v>48.843823610306202</v>
       </c>
       <c r="F294" t="s">
@@ -8033,10 +8058,10 @@
       <c r="C295" t="s">
         <v>253</v>
       </c>
-      <c r="D295" s="3">
+      <c r="D295">
         <v>2.31755123561702</v>
       </c>
-      <c r="E295" s="3">
+      <c r="E295">
         <v>48.844317682586002</v>
       </c>
       <c r="F295" t="s">
@@ -8056,10 +8081,10 @@
       <c r="C296" t="s">
         <v>134</v>
       </c>
-      <c r="D296" s="3">
+      <c r="D296">
         <v>2.3129146804739298</v>
       </c>
-      <c r="E296" s="3">
+      <c r="E296">
         <v>48.8425283865949</v>
       </c>
       <c r="F296" t="s">
@@ -8079,10 +8104,10 @@
       <c r="C297" t="s">
         <v>254</v>
       </c>
-      <c r="D297" s="3">
+      <c r="D297">
         <v>2.3079833805768502</v>
       </c>
-      <c r="E297" s="3">
+      <c r="E297">
         <v>48.841411727466699</v>
       </c>
       <c r="F297" t="s">
@@ -8102,10 +8127,10 @@
       <c r="C298" t="s">
         <v>255</v>
       </c>
-      <c r="D298" s="3">
+      <c r="D298">
         <v>2.3010745156545398</v>
       </c>
-      <c r="E298" s="3">
+      <c r="E298">
         <v>48.839437917128599</v>
       </c>
       <c r="F298" t="s">
@@ -8125,10 +8150,10 @@
       <c r="C299" t="s">
         <v>256</v>
       </c>
-      <c r="D299" s="3">
+      <c r="D299">
         <v>2.2963913864809098</v>
       </c>
-      <c r="E299" s="3">
+      <c r="E299">
         <v>48.837135052856603</v>
       </c>
       <c r="F299" t="s">
@@ -8148,10 +8173,10 @@
       <c r="C300" t="s">
         <v>257</v>
       </c>
-      <c r="D300" s="3">
+      <c r="D300">
         <v>2.2877417091423302</v>
       </c>
-      <c r="E300" s="3">
+      <c r="E300">
         <v>48.832519531565097</v>
       </c>
       <c r="F300" t="s">
@@ -8171,10 +8196,10 @@
       <c r="C301" t="s">
         <v>258</v>
       </c>
-      <c r="D301" s="3">
+      <c r="D301">
         <v>2.30533238665747</v>
       </c>
-      <c r="E301" s="3">
+      <c r="E301">
         <v>48.827613463055897</v>
       </c>
       <c r="F301" t="s">
@@ -8194,10 +8219,10 @@
       <c r="C302" t="s">
         <v>259</v>
       </c>
-      <c r="D302" s="3">
+      <c r="D302">
         <v>2.3138604893443002</v>
       </c>
-      <c r="E302" s="3">
+      <c r="E302">
         <v>48.831750362119102</v>
       </c>
       <c r="F302" t="s">
@@ -8217,10 +8242,10 @@
       <c r="C303" t="s">
         <v>260</v>
       </c>
-      <c r="D303" s="3">
+      <c r="D303">
         <v>2.3183937066147</v>
       </c>
-      <c r="E303" s="3">
+      <c r="E303">
         <v>48.8340786788266</v>
       </c>
       <c r="F303" t="s">
@@ -8240,10 +8265,10 @@
       <c r="C304" t="s">
         <v>261</v>
       </c>
-      <c r="D304" s="3">
+      <c r="D304">
         <v>2.3223539967788001</v>
       </c>
-      <c r="E304" s="3">
+      <c r="E304">
         <v>48.838526084074203</v>
       </c>
       <c r="F304" t="s">
@@ -8263,10 +8288,10 @@
       <c r="C305" t="s">
         <v>102</v>
       </c>
-      <c r="D305" s="3">
+      <c r="D305">
         <v>2.3239891852049999</v>
       </c>
-      <c r="E305" s="3">
+      <c r="E305">
         <v>48.843823610306202</v>
       </c>
       <c r="F305" t="s">
@@ -8286,10 +8311,10 @@
       <c r="C306" t="s">
         <v>225</v>
       </c>
-      <c r="D306" s="3">
+      <c r="D306">
         <v>2.3165212194565199</v>
       </c>
-      <c r="E306" s="3">
+      <c r="E306">
         <v>48.847009892663699</v>
       </c>
       <c r="F306" t="s">
@@ -8309,10 +8334,10 @@
       <c r="C307" t="s">
         <v>262</v>
       </c>
-      <c r="D307" s="3">
+      <c r="D307">
         <v>2.3142859461805498</v>
       </c>
-      <c r="E307" s="3">
+      <c r="E307">
         <v>48.851291549990201</v>
       </c>
       <c r="F307" t="s">
@@ -8332,10 +8357,10 @@
       <c r="C308" t="s">
         <v>263</v>
       </c>
-      <c r="D308" s="3">
+      <c r="D308">
         <v>2.31511393050965</v>
       </c>
-      <c r="E308" s="3">
+      <c r="E308">
         <v>48.856624981798298</v>
       </c>
       <c r="F308" t="s">
@@ -8355,10 +8380,10 @@
       <c r="C309" t="s">
         <v>185</v>
       </c>
-      <c r="D309" s="3">
+      <c r="D309">
         <v>2.3146326604445102</v>
       </c>
-      <c r="E309" s="3">
+      <c r="E309">
         <v>48.861092010432898</v>
       </c>
       <c r="F309" t="s">
@@ -8378,10 +8403,10 @@
       <c r="C310" t="s">
         <v>13</v>
       </c>
-      <c r="D310" s="3">
+      <c r="D310">
         <v>2.3144645013227798</v>
       </c>
-      <c r="E310" s="3">
+      <c r="E310">
         <v>48.867656291245702</v>
       </c>
       <c r="F310" t="s">
@@ -8401,10 +8426,10 @@
       <c r="C311" t="s">
         <v>210</v>
       </c>
-      <c r="D311" s="3">
+      <c r="D311">
         <v>2.31601069312102</v>
       </c>
-      <c r="E311" s="3">
+      <c r="E311">
         <v>48.873447914847098</v>
       </c>
       <c r="F311" t="s">
@@ -8424,10 +8449,10 @@
       <c r="C312" t="s">
         <v>65</v>
       </c>
-      <c r="D312" s="3">
+      <c r="D312">
         <v>2.3254883906726098</v>
       </c>
-      <c r="E312" s="3">
+      <c r="E312">
         <v>48.875381315059897</v>
       </c>
       <c r="F312" t="s">
@@ -8447,10 +8472,10 @@
       <c r="C313" t="s">
         <v>264</v>
       </c>
-      <c r="D313" s="3">
+      <c r="D313">
         <v>2.3268526712397501</v>
       </c>
-      <c r="E313" s="3">
+      <c r="E313">
         <v>48.879534936427703</v>
       </c>
       <c r="F313" t="s">
@@ -8470,10 +8495,10 @@
       <c r="C314" t="s">
         <v>38</v>
       </c>
-      <c r="D314" s="3">
+      <c r="D314">
         <v>2.3279583280102099</v>
       </c>
-      <c r="E314" s="3">
+      <c r="E314">
         <v>48.883669087324598</v>
       </c>
       <c r="F314" t="s">
@@ -8493,10 +8518,10 @@
       <c r="C315" t="s">
         <v>265</v>
       </c>
-      <c r="D315" s="3">
+      <c r="D315">
         <v>2.3257141171661302</v>
       </c>
-      <c r="E315" s="3">
+      <c r="E315">
         <v>48.887433655788897</v>
       </c>
       <c r="F315" t="s">
@@ -8516,10 +8541,10 @@
       <c r="C316" t="s">
         <v>266</v>
       </c>
-      <c r="D316" s="3">
+      <c r="D316">
         <v>2.32748325862612</v>
       </c>
-      <c r="E316" s="3">
+      <c r="E316">
         <v>48.893001441013602</v>
       </c>
       <c r="F316" t="s">
@@ -8539,10 +8564,10 @@
       <c r="C317" t="s">
         <v>267</v>
       </c>
-      <c r="D317" s="3">
+      <c r="D317">
         <v>2.3290483407446398</v>
       </c>
-      <c r="E317" s="3">
+      <c r="E317">
         <v>48.8974978363795</v>
       </c>
       <c r="F317" t="s">
@@ -8562,10 +8587,10 @@
       <c r="C318" t="s">
         <v>265</v>
       </c>
-      <c r="D318" s="3">
+      <c r="D318">
         <v>2.3257141171661302</v>
       </c>
-      <c r="E318" s="3">
+      <c r="E318">
         <v>48.887433655788897</v>
       </c>
       <c r="F318" t="s">
@@ -8585,10 +8610,10 @@
       <c r="C319" t="s">
         <v>268</v>
       </c>
-      <c r="D319" s="3">
+      <c r="D319">
         <v>2.3199048172093599</v>
       </c>
-      <c r="E319" s="3">
+      <c r="E319">
         <v>48.890651870242102</v>
       </c>
       <c r="F319" t="s">
@@ -8608,10 +8633,10 @@
       <c r="C320" t="s">
         <v>269</v>
       </c>
-      <c r="D320" s="3">
+      <c r="D320">
         <v>2.3132083507588002</v>
       </c>
-      <c r="E320" s="3">
+      <c r="E320">
         <v>48.894431287069501</v>
       </c>
       <c r="F320" t="s">
@@ -8631,10 +8656,10 @@
       <c r="C321" t="s">
         <v>269</v>
       </c>
-      <c r="D321" s="3">
+      <c r="D321">
         <v>2.3132083507588002</v>
       </c>
-      <c r="E321" s="3">
+      <c r="E321">
         <v>48.894431287069501</v>
       </c>
       <c r="F321" t="s">
@@ -8654,10 +8679,10 @@
       <c r="C322" t="s">
         <v>270</v>
       </c>
-      <c r="D322" s="3">
+      <c r="D322">
         <v>2.3153681405051501</v>
       </c>
-      <c r="E322" s="3">
+      <c r="E322">
         <v>48.888103402695002</v>
       </c>
       <c r="F322" t="s">
@@ -8677,10 +8702,10 @@
       <c r="C323" t="s">
         <v>65</v>
       </c>
-      <c r="D323" s="3">
+      <c r="D323">
         <v>2.3254883906726098</v>
       </c>
-      <c r="E323" s="3">
+      <c r="E323">
         <v>48.875381315059897</v>
       </c>
       <c r="F323" t="s">
@@ -8700,10 +8725,10 @@
       <c r="C324" t="s">
         <v>186</v>
       </c>
-      <c r="D324" s="3">
+      <c r="D324">
         <v>2.32581004879327</v>
       </c>
-      <c r="E324" s="3">
+      <c r="E324">
         <v>48.870544675768102</v>
       </c>
       <c r="F324" t="s">
@@ -8723,10 +8748,10 @@
       <c r="C325" t="s">
         <v>157</v>
       </c>
-      <c r="D325" s="3">
+      <c r="D325">
         <v>2.3346236060049201</v>
       </c>
-      <c r="E325" s="3">
+      <c r="E325">
         <v>48.8657555264286</v>
       </c>
       <c r="F325" t="s">
@@ -8746,10 +8771,10 @@
       <c r="C326" t="s">
         <v>19</v>
       </c>
-      <c r="D326" s="3">
+      <c r="D326">
         <v>2.34816099123457</v>
       </c>
-      <c r="E326" s="3">
+      <c r="E326">
         <v>48.856953459837101</v>
       </c>
       <c r="F326" t="s">
@@ -8769,10 +8794,10 @@
       <c r="C327" t="s">
         <v>25</v>
       </c>
-      <c r="D327" s="3">
+      <c r="D327">
         <v>2.3731565937891999</v>
       </c>
-      <c r="E327" s="3">
+      <c r="E327">
         <v>48.845683205787502</v>
       </c>
       <c r="F327" t="s">
@@ -8792,10 +8817,10 @@
       <c r="C328" t="s">
         <v>142</v>
       </c>
-      <c r="D328" s="3">
+      <c r="D328">
         <v>2.3794630701852499</v>
       </c>
-      <c r="E328" s="3">
+      <c r="E328">
         <v>48.840176027173598</v>
       </c>
       <c r="F328" t="s">
@@ -8815,10 +8840,10 @@
       <c r="C329" t="s">
         <v>271</v>
       </c>
-      <c r="D329" s="3">
+      <c r="D329">
         <v>2.38661785021405</v>
       </c>
-      <c r="E329" s="3">
+      <c r="E329">
         <v>48.833319302894999</v>
       </c>
       <c r="F329" t="s">
@@ -8838,10 +8863,10 @@
       <c r="C330" t="s">
         <v>272</v>
       </c>
-      <c r="D330" s="3">
+      <c r="D330">
         <v>2.3764873711683001</v>
       </c>
-      <c r="E330" s="3">
+      <c r="E330">
         <v>48.829925764980501</v>
       </c>
       <c r="F330" t="s">
@@ -8861,10 +8886,10 @@
       <c r="C331" t="s">
         <v>273</v>
       </c>
-      <c r="D331" s="3">
+      <c r="D331">
         <v>2.3669231215308</v>
       </c>
-      <c r="E331" s="3">
+      <c r="E331">
         <v>48.827123440481003</v>
       </c>
       <c r="F331" t="s">
@@ -8884,10 +8909,10 @@
       <c r="C332" t="s">
         <v>273</v>
       </c>
-      <c r="D332" s="3">
+      <c r="D332">
         <v>2.3669231215308</v>
       </c>
-      <c r="E332" s="3">
+      <c r="E332">
         <v>48.827123440481003</v>
       </c>
       <c r="F332" t="s">
@@ -8907,10 +8932,10 @@
       <c r="C333" t="s">
         <v>166</v>
       </c>
-      <c r="D333" s="3">
+      <c r="D333">
         <v>2.35841294615593</v>
       </c>
-      <c r="E333" s="3">
+      <c r="E333">
         <v>48.822149505126497</v>
       </c>
       <c r="F333" t="s">
@@ -8930,8 +8955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CFEF04-CB9F-4D0E-AA44-E5CDB48F03B4}">
   <dimension ref="A1:F333"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="C322" sqref="C322:C333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9765,12 +9790,17 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1">
+        <v>46</v>
+      </c>
+      <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -9779,6 +9809,12 @@
       <c r="B47" t="s">
         <v>61</v>
       </c>
+      <c r="C47">
+        <v>45</v>
+      </c>
+      <c r="D47">
+        <v>47</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -9787,2285 +9823,3931 @@
       <c r="B48" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>46</v>
+      </c>
+      <c r="D48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>47</v>
+      </c>
+      <c r="D49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>48</v>
+      </c>
+      <c r="D50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>49</v>
+      </c>
+      <c r="D51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>52</v>
+      </c>
+      <c r="D54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>53</v>
+      </c>
+      <c r="D55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>54</v>
+      </c>
+      <c r="D56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>55</v>
+      </c>
+      <c r="D57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>57</v>
+      </c>
+      <c r="D59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>58</v>
+      </c>
+      <c r="D60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>59</v>
+      </c>
+      <c r="D61">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>60</v>
+      </c>
+      <c r="D62">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>61</v>
+      </c>
+      <c r="D63">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>62</v>
+      </c>
+      <c r="D64">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="C65">
+        <v>63</v>
+      </c>
+      <c r="D65">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="C66" s="1">
+        <v>64</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1">
+        <v>67</v>
+      </c>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>66</v>
+      </c>
+      <c r="D68">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="C69">
+        <v>67</v>
+      </c>
+      <c r="D69">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="C70" s="1">
+        <v>68</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1">
+        <v>71</v>
+      </c>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>70</v>
+      </c>
+      <c r="D72">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>71</v>
+      </c>
+      <c r="D73">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>72</v>
+      </c>
+      <c r="D74">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>73</v>
+      </c>
+      <c r="D75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>74</v>
+      </c>
+      <c r="D76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>75</v>
+      </c>
+      <c r="D77">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>76</v>
+      </c>
+      <c r="D78">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>77</v>
+      </c>
+      <c r="D79">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>78</v>
+      </c>
+      <c r="D80">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>79</v>
+      </c>
+      <c r="D81">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>80</v>
+      </c>
+      <c r="D82">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>81</v>
+      </c>
+      <c r="D83">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>82</v>
+      </c>
+      <c r="D84">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>83</v>
+      </c>
+      <c r="D85">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>84</v>
+      </c>
+      <c r="D86">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>85</v>
+      </c>
+      <c r="D87">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>86</v>
+      </c>
+      <c r="D88">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>87</v>
+      </c>
+      <c r="D89">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>88</v>
+      </c>
+      <c r="D90">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>89</v>
+      </c>
+      <c r="D91">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>90</v>
+      </c>
+      <c r="D92">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>91</v>
+      </c>
+      <c r="D93">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>92</v>
+      </c>
+      <c r="D94">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>93</v>
+      </c>
+      <c r="D95">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>96</v>
+      </c>
+      <c r="D98">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>97</v>
+      </c>
+      <c r="D99">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>98</v>
+      </c>
+      <c r="D100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>99</v>
+      </c>
+      <c r="D101">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>100</v>
+      </c>
+      <c r="D102">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>101</v>
+      </c>
+      <c r="D103">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>102</v>
+      </c>
+      <c r="D104">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>103</v>
+      </c>
+      <c r="D105">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>104</v>
+      </c>
+      <c r="D106">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>105</v>
+      </c>
+      <c r="D107">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>106</v>
+      </c>
+      <c r="D108">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>107</v>
+      </c>
+      <c r="D109">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>108</v>
+      </c>
+      <c r="D110">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>109</v>
+      </c>
+      <c r="D111">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>110</v>
+      </c>
+      <c r="D112">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>111</v>
+      </c>
+      <c r="D113">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>114</v>
+      </c>
+      <c r="D116">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>115</v>
+      </c>
+      <c r="D117">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>116</v>
+      </c>
+      <c r="D118">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>117</v>
+      </c>
+      <c r="D119">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>118</v>
+      </c>
+      <c r="D120">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>119</v>
+      </c>
+      <c r="D121">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>120</v>
+      </c>
+      <c r="D122">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>121</v>
+      </c>
+      <c r="D123">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>122</v>
+      </c>
+      <c r="D124">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>123</v>
+      </c>
+      <c r="D125">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>124</v>
+      </c>
+      <c r="D126">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>125</v>
+      </c>
+      <c r="D127">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>126</v>
+      </c>
+      <c r="D128">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>127</v>
+      </c>
+      <c r="D129">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>128</v>
+      </c>
+      <c r="D130">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>129</v>
+      </c>
+      <c r="D131">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>130</v>
+      </c>
+      <c r="D132">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>131</v>
+      </c>
+      <c r="D133">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>132</v>
+      </c>
+      <c r="D134">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>133</v>
+      </c>
+      <c r="D135">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>134</v>
+      </c>
+      <c r="D136">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>135</v>
+      </c>
+      <c r="D137">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>136</v>
+      </c>
+      <c r="D138">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>137</v>
+      </c>
+      <c r="D139">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>138</v>
+      </c>
+      <c r="D140">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>139</v>
+      </c>
+      <c r="D141">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>142</v>
+      </c>
+      <c r="D144">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>143</v>
+      </c>
+      <c r="D145">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>144</v>
+      </c>
+      <c r="D146">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>145</v>
+      </c>
+      <c r="D147">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>146</v>
+      </c>
+      <c r="D148">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>147</v>
+      </c>
+      <c r="D149">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>148</v>
+      </c>
+      <c r="D150">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>149</v>
+      </c>
+      <c r="D151">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>150</v>
+      </c>
+      <c r="D152">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>151</v>
+      </c>
+      <c r="D153">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>152</v>
+      </c>
+      <c r="D154">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>153</v>
+      </c>
+      <c r="D155">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>154</v>
+      </c>
+      <c r="D156">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>155</v>
+      </c>
+      <c r="D157">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>156</v>
+      </c>
+      <c r="D158">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>157</v>
+      </c>
+      <c r="D159">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>158</v>
+      </c>
+      <c r="D160">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>159</v>
+      </c>
+      <c r="D161">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>160</v>
+      </c>
+      <c r="D162">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>161</v>
+      </c>
+      <c r="D163">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>162</v>
+      </c>
+      <c r="D164">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>163</v>
+      </c>
+      <c r="D165">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>164</v>
+      </c>
+      <c r="D166">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>165</v>
+      </c>
+      <c r="D167">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>166</v>
+      </c>
+      <c r="D168">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>167</v>
+      </c>
+      <c r="D169">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>168</v>
+      </c>
+      <c r="D170">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>281</v>
+      </c>
+      <c r="D172" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>172</v>
+      </c>
+      <c r="D174">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>173</v>
+      </c>
+      <c r="D175">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>174</v>
+      </c>
+      <c r="D176">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>175</v>
+      </c>
+      <c r="D177">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="C178">
+        <v>176</v>
+      </c>
+      <c r="D178">
         <v>178</v>
       </c>
-      <c r="B179" t="s">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>178</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="C179" s="3">
+        <v>177</v>
+      </c>
+      <c r="D179" s="3">
         <v>179</v>
       </c>
-      <c r="B180" t="s">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="5">
+        <v>179</v>
+      </c>
+      <c r="B180" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180" s="5">
+        <v>178</v>
+      </c>
+      <c r="D180" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181" s="5">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>181</v>
+      </c>
+      <c r="D183">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <v>182</v>
+      </c>
+      <c r="D184">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>183</v>
+      </c>
+      <c r="D185">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>184</v>
+      </c>
+      <c r="D186">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>185</v>
+      </c>
+      <c r="D187">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>186</v>
+      </c>
+      <c r="D188">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>187</v>
+      </c>
+      <c r="D189">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>188</v>
+      </c>
+      <c r="D190">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>189</v>
+      </c>
+      <c r="D191">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <v>190</v>
+      </c>
+      <c r="D192">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <v>191</v>
+      </c>
+      <c r="D193">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <v>192</v>
+      </c>
+      <c r="D194">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <v>193</v>
+      </c>
+      <c r="D195">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>194</v>
+      </c>
+      <c r="D196">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <v>195</v>
+      </c>
+      <c r="D197">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <v>196</v>
+      </c>
+      <c r="D198">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>197</v>
+      </c>
+      <c r="D199">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <v>198</v>
+      </c>
+      <c r="D200">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <v>199</v>
+      </c>
+      <c r="D201">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <v>200</v>
+      </c>
+      <c r="D202">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <v>201</v>
+      </c>
+      <c r="D203">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204">
+        <v>202</v>
+      </c>
+      <c r="D204">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205">
+        <v>203</v>
+      </c>
+      <c r="D205">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C206">
+        <v>204</v>
+      </c>
+      <c r="D206">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207">
+        <v>205</v>
+      </c>
+      <c r="D207">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208">
+        <v>206</v>
+      </c>
+      <c r="D208">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <v>207</v>
+      </c>
+      <c r="D209">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <v>210</v>
+      </c>
+      <c r="D212">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <v>211</v>
+      </c>
+      <c r="D213">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <v>212</v>
+      </c>
+      <c r="D214">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215">
+        <v>213</v>
+      </c>
+      <c r="D215">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <v>214</v>
+      </c>
+      <c r="D216">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217">
+        <v>215</v>
+      </c>
+      <c r="D217">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218">
+        <v>216</v>
+      </c>
+      <c r="D218">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219">
+        <v>217</v>
+      </c>
+      <c r="D219">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220">
+        <v>218</v>
+      </c>
+      <c r="D220">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221">
+        <v>219</v>
+      </c>
+      <c r="D221">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222">
+        <v>220</v>
+      </c>
+      <c r="D222">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223">
+        <v>221</v>
+      </c>
+      <c r="D223">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224">
+        <v>222</v>
+      </c>
+      <c r="D224">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225">
+        <v>223</v>
+      </c>
+      <c r="D225">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226">
+        <v>224</v>
+      </c>
+      <c r="D226">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227">
+        <v>225</v>
+      </c>
+      <c r="D227">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228">
+        <v>226</v>
+      </c>
+      <c r="D228">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229">
+        <v>227</v>
+      </c>
+      <c r="D229">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230">
+        <v>228</v>
+      </c>
+      <c r="D230">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231">
+        <v>229</v>
+      </c>
+      <c r="D231">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232">
+        <v>230</v>
+      </c>
+      <c r="D232">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233">
+        <v>231</v>
+      </c>
+      <c r="D233">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234">
+        <v>232</v>
+      </c>
+      <c r="D234">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C235">
+        <v>233</v>
+      </c>
+      <c r="D235">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C236">
+        <v>234</v>
+      </c>
+      <c r="D236">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C237">
+        <v>235</v>
+      </c>
+      <c r="D237">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C238">
+        <v>236</v>
+      </c>
+      <c r="D238">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C239">
+        <v>237</v>
+      </c>
+      <c r="D239">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C240">
+        <v>238</v>
+      </c>
+      <c r="D240">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C241">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C243">
+        <v>241</v>
+      </c>
+      <c r="D243">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C244">
+        <v>242</v>
+      </c>
+      <c r="D244">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C245">
+        <v>243</v>
+      </c>
+      <c r="D245">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C246">
+        <v>244</v>
+      </c>
+      <c r="D246">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C247">
+        <v>245</v>
+      </c>
+      <c r="D247">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C248">
+        <v>246</v>
+      </c>
+      <c r="D248">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="6" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C249">
+        <v>247</v>
+      </c>
+      <c r="D249">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C250">
+        <v>248</v>
+      </c>
+      <c r="D250">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C251">
+        <v>249</v>
+      </c>
+      <c r="D251">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C252">
+        <v>250</v>
+      </c>
+      <c r="D252">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C253">
+        <v>251</v>
+      </c>
+      <c r="D253">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C254">
+        <v>252</v>
+      </c>
+      <c r="D254">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C255">
+        <v>253</v>
+      </c>
+      <c r="D255">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C256">
+        <v>254</v>
+      </c>
+      <c r="D256">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C257">
+        <v>255</v>
+      </c>
+      <c r="D257">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C258">
+        <v>256</v>
+      </c>
+      <c r="D258">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C259">
+        <v>257</v>
+      </c>
+      <c r="D259">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C260">
+        <v>258</v>
+      </c>
+      <c r="D260">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262">
+      <c r="C261">
+        <v>259</v>
+      </c>
+      <c r="D261">
         <v>261</v>
       </c>
-      <c r="B262" t="s">
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="4">
+        <v>261</v>
+      </c>
+      <c r="B262" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C262" s="4">
+        <v>260</v>
+      </c>
+      <c r="D262" s="4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D263">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C264">
+        <v>262</v>
+      </c>
+      <c r="D264">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C265">
+        <v>263</v>
+      </c>
+      <c r="D265">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C266">
+        <v>264</v>
+      </c>
+      <c r="D266">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C267">
+        <v>265</v>
+      </c>
+      <c r="D267">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C268">
+        <v>266</v>
+      </c>
+      <c r="D268">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C269">
+        <v>267</v>
+      </c>
+      <c r="D269">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C270">
+        <v>268</v>
+      </c>
+      <c r="D270">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C271">
+        <v>269</v>
+      </c>
+      <c r="D271">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="C272">
+        <v>270</v>
+      </c>
+      <c r="D272">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C273">
+        <v>271</v>
+      </c>
+      <c r="D273">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C274">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D275">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C276">
+        <v>274</v>
+      </c>
+      <c r="D276">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C277">
+        <v>275</v>
+      </c>
+      <c r="D277">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C278">
+        <v>276</v>
+      </c>
+      <c r="D278">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C279">
+        <v>277</v>
+      </c>
+      <c r="D279">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C280">
+        <v>278</v>
+      </c>
+      <c r="D280">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C281">
+        <v>279</v>
+      </c>
+      <c r="D281">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
       <c r="B282" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C282">
+        <v>280</v>
+      </c>
+      <c r="D282">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C283">
+        <v>281</v>
+      </c>
+      <c r="D283">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
       <c r="B284" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C284">
+        <v>282</v>
+      </c>
+      <c r="D284">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
       <c r="B285" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C285">
+        <v>283</v>
+      </c>
+      <c r="D285">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
       <c r="B286" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C286">
+        <v>284</v>
+      </c>
+      <c r="D286">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
       <c r="B287" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C287">
+        <v>285</v>
+      </c>
+      <c r="D287">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
       <c r="B288" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C288">
+        <v>286</v>
+      </c>
+      <c r="D288">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
       <c r="B289" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C289">
+        <v>287</v>
+      </c>
+      <c r="D289">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
       <c r="B290" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C290">
+        <v>288</v>
+      </c>
+      <c r="D290">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
       <c r="B291" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C291">
+        <v>289</v>
+      </c>
+      <c r="D291">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
       <c r="B292" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C292">
+        <v>290</v>
+      </c>
+      <c r="D292">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
       <c r="B293" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C293">
+        <v>291</v>
+      </c>
+      <c r="D293">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
       <c r="B294" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C294">
+        <v>292</v>
+      </c>
+      <c r="D294">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
       <c r="B295" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C295">
+        <v>293</v>
+      </c>
+      <c r="D295">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
       <c r="B296" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C296">
+        <v>294</v>
+      </c>
+      <c r="D296">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
       <c r="B297" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C297">
+        <v>295</v>
+      </c>
+      <c r="D297">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
       <c r="B298" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C298">
+        <v>296</v>
+      </c>
+      <c r="D298">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
       <c r="B299" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C299">
+        <v>297</v>
+      </c>
+      <c r="D299">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
       <c r="B300" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C300">
+        <v>298</v>
+      </c>
+      <c r="D300">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
       <c r="B301" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C301">
+        <v>299</v>
+      </c>
+      <c r="D301">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
       <c r="B302" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C302">
+        <v>300</v>
+      </c>
+      <c r="D302">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
       <c r="B303" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C303">
+        <v>301</v>
+      </c>
+      <c r="D303">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
       <c r="B304" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C304">
+        <v>302</v>
+      </c>
+      <c r="D304">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
       <c r="B305" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C305">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
       <c r="B306" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D306">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
       <c r="B307" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C307">
+        <v>305</v>
+      </c>
+      <c r="D307">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
       <c r="B308" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C308">
+        <v>306</v>
+      </c>
+      <c r="D308">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
       <c r="B309" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C309">
+        <v>307</v>
+      </c>
+      <c r="D309">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
       <c r="B310" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C310">
+        <v>308</v>
+      </c>
+      <c r="D310">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
       <c r="B311" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C311">
+        <v>309</v>
+      </c>
+      <c r="D311">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
       <c r="B312" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C312">
+        <v>310</v>
+      </c>
+      <c r="D312">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
       <c r="B313" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C313">
+        <v>311</v>
+      </c>
+      <c r="D313">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
       <c r="B314" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C314">
+        <v>312</v>
+      </c>
+      <c r="D314">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
       <c r="B315" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C315">
+        <v>313</v>
+      </c>
+      <c r="D315">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
       <c r="B316" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C316">
+        <v>314</v>
+      </c>
+      <c r="D316">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
       <c r="B317" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C317">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
       <c r="B318" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C318">
+        <v>313</v>
+      </c>
+      <c r="D318">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
       <c r="B319" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C319">
+        <v>317</v>
+      </c>
+      <c r="D319">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
       <c r="B320" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C320">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
       <c r="B321" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D321">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
       <c r="B322" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C322">
+        <v>320</v>
+      </c>
+      <c r="D322">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
       <c r="B323" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C323">
+        <v>321</v>
+      </c>
+      <c r="D323">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
       <c r="B324" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C324">
+        <v>322</v>
+      </c>
+      <c r="D324">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
       <c r="B325" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C325">
+        <v>323</v>
+      </c>
+      <c r="D325">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
       <c r="B326" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C326">
+        <v>324</v>
+      </c>
+      <c r="D326">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
       <c r="B327" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C327">
+        <v>325</v>
+      </c>
+      <c r="D327">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
       <c r="B328" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C328">
+        <v>326</v>
+      </c>
+      <c r="D328">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
       <c r="B329" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C329">
+        <v>327</v>
+      </c>
+      <c r="D329">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
       <c r="B330" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C330">
+        <v>328</v>
+      </c>
+      <c r="D330">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
       <c r="B331" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C331">
+        <v>329</v>
+      </c>
+      <c r="D331">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
       <c r="B332" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C332">
+        <v>330</v>
+      </c>
+      <c r="D332">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
       <c r="B333" t="s">
         <v>166</v>
+      </c>
+      <c r="C333">
+        <v>331</v>
+      </c>
+      <c r="D333">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
